--- a/a_in/us_travels.xlsx
+++ b/a_in/us_travels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s9/Code/us_travels_v4/a_in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E116E6-C5CD-754F-8801-9AB273AF0327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9119BC74-EDA9-D540-9320-3CE71ADDA13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53640" yWindow="640" windowWidth="18120" windowHeight="20960" firstSheet="2" activeTab="7" xr2:uid="{895BEAD3-490B-3645-811C-E95312094DBD}"/>
+    <workbookView xWindow="53640" yWindow="640" windowWidth="18120" windowHeight="20960" firstSheet="2" activeTab="2" xr2:uid="{895BEAD3-490B-3645-811C-E95312094DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="msa_roster" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3541" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1189">
   <si>
     <t>New York–Newark–Jersey City, NY-NJ MSA</t>
   </si>
@@ -3479,9 +3479,6 @@
     <t>Mega City</t>
   </si>
   <si>
-    <t>goal</t>
-  </si>
-  <si>
     <t>UVA / Montecello WHS</t>
   </si>
   <si>
@@ -3596,9 +3593,6 @@
     <t>Ocean City MD</t>
   </si>
   <si>
-    <t>trips</t>
-  </si>
-  <si>
     <t>2021-Virginia</t>
   </si>
   <si>
@@ -3615,6 +3609,9 @@
   </si>
   <si>
     <t>visit</t>
+  </si>
+  <si>
+    <t>is_goal</t>
   </si>
 </sst>
 </file>
@@ -4098,17 +4095,17 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C215" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E249" sqref="E249"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="12" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" style="13" bestFit="1" customWidth="1"/>
@@ -4127,10 +4124,10 @@
         <v>587</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1144</v>
+        <v>1188</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1142</v>
@@ -4542,7 +4539,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B13" t="s">
         <v>589</v>
@@ -5809,7 +5806,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I48" s="10">
         <v>156840</v>
@@ -6564,7 +6561,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B70" t="s">
         <v>703</v>
@@ -6578,13 +6575,13 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I70" s="12">
         <v>93875</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K70" t="s">
         <v>17</v>
@@ -7982,7 +7979,7 @@
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I109" s="10">
         <v>227336</v>
@@ -17487,10 +17484,10 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17504,7 +17501,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>839</v>
       </c>
@@ -17523,11 +17520,8 @@
       <c r="F1" t="s">
         <v>933</v>
       </c>
-      <c r="G1" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>838</v>
       </c>
@@ -17548,7 +17542,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>838</v>
       </c>
@@ -17569,7 +17563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>842</v>
       </c>
@@ -17590,7 +17584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>842</v>
       </c>
@@ -17611,7 +17605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>842</v>
       </c>
@@ -17632,7 +17626,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>841</v>
       </c>
@@ -17653,7 +17647,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>843</v>
       </c>
@@ -17674,7 +17668,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>843</v>
       </c>
@@ -17695,7 +17689,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>838</v>
       </c>
@@ -17716,7 +17710,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>838</v>
       </c>
@@ -17737,7 +17731,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>838</v>
       </c>
@@ -17758,7 +17752,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>838</v>
       </c>
@@ -17779,7 +17773,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>838</v>
       </c>
@@ -17800,7 +17794,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>838</v>
       </c>
@@ -17821,7 +17815,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>838</v>
       </c>
@@ -19332,11 +19326,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A1812C-866A-0544-AE9F-235DC4187F8D}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21195,18 +21189,18 @@
         <v>1140</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C2" s="20">
         <f>DATE(2014,6,15)</f>
@@ -21219,10 +21213,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C3" s="18">
         <f>DATE(2016,12,23)</f>
@@ -21235,10 +21229,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C4" s="20">
         <f>DATE(2017,6,15)</f>
@@ -21251,10 +21245,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C5" s="18">
         <f>DATE(2021,5,10)</f>
@@ -21267,10 +21261,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C6" s="4">
         <f>DATE(2021,6,7)</f>
@@ -21283,10 +21277,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B7" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C7" s="19">
         <f>DATE(2021,8,31)</f>
@@ -21300,10 +21294,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B8" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C8" s="4">
         <f>DATE(2021,10,9)</f>
@@ -21317,10 +21311,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C9" s="18">
         <f>DATE(2021,10,18)</f>
@@ -21333,10 +21327,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C10" s="4">
         <f>DATE(2023,8,25)</f>
@@ -21349,10 +21343,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B11" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C11" s="18">
         <f>DATE(2022,8,21)</f>
@@ -21365,10 +21359,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C12" s="4">
         <f>DATE(2022,9,24)</f>
@@ -21381,10 +21375,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B13" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C13" s="18">
         <f>DATE(2023,5,12)</f>
@@ -21397,10 +21391,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C14" s="18">
         <f>DATE(2023,12,14)</f>
@@ -21413,10 +21407,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B15" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C15" s="18">
         <f>DATE(2024,9,17)</f>
@@ -21459,12 +21453,12 @@
         <v>1139</v>
       </c>
       <c r="B1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>681</v>
@@ -21472,7 +21466,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B3" t="s">
         <v>648</v>
@@ -21480,7 +21474,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B4" t="s">
         <v>557</v>
@@ -21488,7 +21482,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B5" t="s">
         <v>553</v>
@@ -21496,7 +21490,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B6" t="s">
         <v>683</v>
@@ -21504,7 +21498,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>551</v>
@@ -21512,7 +21506,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>551</v>
@@ -21520,7 +21514,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B9" t="s">
         <v>861</v>
@@ -21528,7 +21522,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B10" t="s">
         <v>575</v>
@@ -21536,7 +21530,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B11" t="s">
         <v>576</v>
@@ -21544,7 +21538,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B12" t="s">
         <v>564</v>
@@ -21552,7 +21546,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>551</v>
@@ -21560,7 +21554,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B14" t="s">
         <v>574</v>
@@ -21568,7 +21562,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B15" t="s">
         <v>681</v>
@@ -21576,7 +21570,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B16" t="s">
         <v>656</v>
@@ -21584,7 +21578,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B17" t="s">
         <v>554</v>
@@ -21592,7 +21586,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B18" t="s">
         <v>644</v>
@@ -21600,7 +21594,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B19" t="s">
         <v>559</v>
@@ -21608,7 +21602,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B20" t="s">
         <v>599</v>
@@ -21616,7 +21610,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B21" t="s">
         <v>573</v>
@@ -21624,7 +21618,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B22" t="s">
         <v>865</v>
@@ -21632,7 +21626,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B23" t="s">
         <v>709</v>
@@ -21640,7 +21634,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>556</v>
@@ -21648,7 +21642,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B25" t="s">
         <v>560</v>
@@ -21656,7 +21650,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B26" t="s">
         <v>746</v>
@@ -21664,7 +21658,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B27" t="s">
         <v>631</v>
@@ -21672,15 +21666,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B28" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>556</v>
@@ -21688,7 +21682,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B30" t="s">
         <v>721</v>
@@ -21696,7 +21690,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B31" t="s">
         <v>579</v>
@@ -21704,7 +21698,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B32" t="s">
         <v>1102</v>
@@ -21712,7 +21706,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B33" t="s">
         <v>581</v>
@@ -21720,7 +21714,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B34" t="s">
         <v>669</v>
@@ -21728,7 +21722,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B35" t="s">
         <v>739</v>
@@ -21736,7 +21730,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B36" t="s">
         <v>582</v>
@@ -21744,7 +21738,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B37" t="s">
         <v>727</v>
@@ -21752,7 +21746,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B38" t="s">
         <v>580</v>
@@ -21760,7 +21754,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B39" t="s">
         <v>707</v>
@@ -21768,7 +21762,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B40" t="s">
         <v>598</v>
@@ -21776,7 +21770,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B41" t="s">
         <v>897</v>
@@ -21784,7 +21778,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B42" t="s">
         <v>637</v>
@@ -21792,7 +21786,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B43" t="s">
         <v>720</v>
@@ -21800,7 +21794,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B44" t="s">
         <v>572</v>
@@ -21808,7 +21802,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B45" t="s">
         <v>717</v>
@@ -21816,7 +21810,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>556</v>
@@ -21824,7 +21818,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B47" t="s">
         <v>652</v>
@@ -21832,7 +21826,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B48" t="s">
         <v>879</v>
@@ -21840,7 +21834,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B49" t="s">
         <v>560</v>
@@ -21848,7 +21842,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B50" t="s">
         <v>633</v>
@@ -21856,7 +21850,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B51" t="s">
         <v>719</v>
@@ -21864,7 +21858,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B52" t="s">
         <v>682</v>
@@ -21872,7 +21866,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B53" t="s">
         <v>700</v>
@@ -21880,7 +21874,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B54" t="s">
         <v>751</v>
@@ -21888,7 +21882,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B55" t="s">
         <v>689</v>
@@ -21896,7 +21890,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B56" t="s">
         <v>692</v>
@@ -21904,7 +21898,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B57" t="s">
         <v>594</v>
@@ -21912,7 +21906,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B58" t="s">
         <v>636</v>
@@ -21920,7 +21914,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B59" t="s">
         <v>704</v>
@@ -21928,7 +21922,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B60" t="s">
         <v>885</v>
@@ -21936,7 +21930,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>551</v>
@@ -21944,7 +21938,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B62" t="s">
         <v>578</v>
@@ -21952,7 +21946,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B63" t="s">
         <v>561</v>
@@ -21960,7 +21954,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B64" t="s">
         <v>567</v>
@@ -21968,7 +21962,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>556</v>
@@ -21976,7 +21970,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B66" t="s">
         <v>858</v>
@@ -21984,7 +21978,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B67" t="s">
         <v>681</v>
@@ -21992,7 +21986,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B68" t="s">
         <v>599</v>
@@ -22000,7 +21994,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>556</v>
@@ -22008,7 +22002,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B70" t="s">
         <v>934</v>
@@ -22016,7 +22010,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B71" t="s">
         <v>552</v>
@@ -22024,7 +22018,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B72" t="s">
         <v>583</v>
@@ -22032,7 +22026,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B73" t="s">
         <v>872</v>
@@ -22040,7 +22034,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B74" t="s">
         <v>563</v>
@@ -22048,7 +22042,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B75" t="s">
         <v>630</v>
@@ -22056,7 +22050,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B76" t="s">
         <v>711</v>
@@ -22064,7 +22058,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B77" t="s">
         <v>745</v>
@@ -22072,7 +22066,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B78" t="s">
         <v>673</v>
@@ -22080,7 +22074,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B79" t="s">
         <v>595</v>
@@ -22088,7 +22082,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B80" t="s">
         <v>577</v>
@@ -22096,7 +22090,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B81" t="s">
         <v>556</v>
@@ -22104,7 +22098,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>648</v>
@@ -22112,7 +22106,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B83" t="s">
         <v>726</v>
@@ -22120,7 +22114,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>556</v>
@@ -22128,7 +22122,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B85" t="s">
         <v>743</v>
@@ -22136,7 +22130,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B86" t="s">
         <v>723</v>
@@ -22144,7 +22138,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>556</v>
@@ -22152,7 +22146,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B88" t="s">
         <v>681</v>
@@ -22160,7 +22154,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B89" t="s">
         <v>593</v>
@@ -22168,7 +22162,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B90" t="s">
         <v>555</v>
@@ -22176,7 +22170,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B91" t="s">
         <v>569</v>
@@ -22184,7 +22178,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B92" t="s">
         <v>599</v>
@@ -22192,7 +22186,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B93" t="s">
         <v>865</v>
@@ -22200,7 +22194,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B94" t="s">
         <v>709</v>
@@ -22208,7 +22202,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B95" t="s">
         <v>566</v>
@@ -22216,7 +22210,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>556</v>
@@ -22224,7 +22218,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B97" t="s">
         <v>557</v>
@@ -22232,7 +22226,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B98" t="s">
         <v>602</v>
@@ -22240,7 +22234,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B99" t="s">
         <v>658</v>
@@ -22248,7 +22242,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B100" t="s">
         <v>570</v>
@@ -22256,7 +22250,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B101" t="s">
         <v>657</v>
@@ -22264,7 +22258,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B102" t="s">
         <v>681</v>
@@ -22272,7 +22266,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B103" t="s">
         <v>646</v>
@@ -22280,7 +22274,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B104" t="s">
         <v>708</v>
@@ -22288,7 +22282,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B105" t="s">
         <v>584</v>
@@ -22296,7 +22290,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B106" t="s">
         <v>599</v>
@@ -22304,7 +22298,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B107" t="s">
         <v>865</v>
@@ -22312,7 +22306,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B108" t="s">
         <v>592</v>
@@ -22320,7 +22314,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B109" s="21" t="s">
         <v>556</v>
@@ -22328,7 +22322,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B110" t="s">
         <v>728</v>
@@ -22336,7 +22330,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B111" t="s">
         <v>716</v>
@@ -22344,7 +22338,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B112" t="s">
         <v>673</v>
@@ -22352,7 +22346,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B113" t="s">
         <v>595</v>
@@ -22360,7 +22354,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B114" t="s">
         <v>565</v>
@@ -22368,7 +22362,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B115" t="s">
         <v>637</v>
@@ -22376,7 +22370,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B116" t="s">
         <v>748</v>
@@ -22384,7 +22378,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B117" t="s">
         <v>859</v>
@@ -22392,7 +22386,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B118" t="s">
         <v>713</v>
@@ -22424,7 +22418,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
@@ -22446,10 +22440,10 @@
         <v>1139</v>
       </c>
       <c r="B1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C1" t="s">
         <v>1173</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1174</v>
       </c>
       <c r="D1" t="s">
         <v>1136</v>
@@ -22458,12 +22452,12 @@
         <v>1137</v>
       </c>
       <c r="F1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B2" t="s">
         <v>556</v>
@@ -22474,7 +22468,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B3" t="s">
         <v>577</v>
@@ -22485,7 +22479,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B4" t="s">
         <v>581</v>
@@ -22496,7 +22490,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B5" t="s">
         <v>582</v>
@@ -22507,7 +22501,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B6" t="s">
         <v>552</v>
@@ -22518,7 +22512,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B7" t="s">
         <v>673</v>
@@ -22529,7 +22523,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B8" t="s">
         <v>565</v>
@@ -22540,7 +22534,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B9" t="s">
         <v>716</v>
@@ -22551,7 +22545,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B10" t="s">
         <v>728</v>
@@ -22564,12 +22558,12 @@
         <v>46.933005000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" t="s">
@@ -22578,7 +22572,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B12" t="s">
         <v>859</v>
@@ -22589,7 +22583,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B13" t="s">
         <v>748</v>
@@ -22600,7 +22594,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B14" t="s">
         <v>713</v>
@@ -22611,7 +22605,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B15" t="s">
         <v>637</v>
@@ -22622,7 +22616,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B16" t="s">
         <v>669</v>
@@ -22633,7 +22627,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B17" t="s">
         <v>582</v>
@@ -22644,7 +22638,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B18" t="s">
         <v>581</v>
@@ -22655,7 +22649,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B19" t="s">
         <v>577</v>
@@ -22666,7 +22660,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B20" t="s">
         <v>556</v>
@@ -22677,7 +22671,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B21" t="s">
         <v>599</v>
@@ -22688,7 +22682,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B22" t="s">
         <v>596</v>
@@ -22699,7 +22693,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>657</v>
@@ -22710,7 +22704,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B24" t="s">
         <v>865</v>
@@ -22721,7 +22715,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B25" t="s">
         <v>593</v>
@@ -22732,7 +22726,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B26" t="s">
         <v>569</v>
@@ -22743,7 +22737,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B27" t="s">
         <v>555</v>
@@ -22754,7 +22748,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B28" t="s">
         <v>566</v>
@@ -22765,7 +22759,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B29" t="s">
         <v>709</v>
@@ -22776,7 +22770,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B30" t="s">
         <v>593</v>
@@ -22787,7 +22781,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B31" t="s">
         <v>865</v>
@@ -22798,7 +22792,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B32" t="s">
         <v>596</v>
@@ -22809,7 +22803,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B33" t="s">
         <v>599</v>
@@ -22820,7 +22814,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B34" t="s">
         <v>556</v>
@@ -22831,7 +22825,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B35" t="s">
         <v>743</v>
@@ -22842,7 +22836,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B36" t="s">
         <v>723</v>
@@ -22855,12 +22849,12 @@
         <v>38.333578000000003</v>
       </c>
       <c r="F36" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" t="s">
@@ -22869,7 +22863,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B38" t="s">
         <v>743</v>
@@ -22880,7 +22874,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B39" t="s">
         <v>556</v>
@@ -22891,7 +22885,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>858</v>
@@ -22902,7 +22896,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B41" t="s">
         <v>646</v>
@@ -22913,7 +22907,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B42" t="s">
         <v>584</v>
@@ -22924,7 +22918,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B43" t="s">
         <v>602</v>
@@ -22935,7 +22929,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B44" t="s">
         <v>708</v>
@@ -22946,7 +22940,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B45" t="s">
         <v>557</v>
@@ -22957,7 +22951,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B46" t="s">
         <v>865</v>
@@ -22968,7 +22962,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B47" t="s">
         <v>658</v>
@@ -22979,7 +22973,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B48" t="s">
         <v>657</v>
@@ -22990,7 +22984,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B49" t="s">
         <v>570</v>
@@ -23001,7 +22995,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>596</v>
@@ -23012,7 +23006,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B51" t="s">
         <v>592</v>
@@ -23023,7 +23017,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B52" t="s">
         <v>599</v>
@@ -23034,7 +23028,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B53" t="s">
         <v>648</v>
@@ -23045,7 +23039,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B54" t="s">
         <v>726</v>
@@ -23056,7 +23050,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B55" t="s">
         <v>556</v>
@@ -23067,7 +23061,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B56" t="s">
         <v>577</v>
@@ -23078,7 +23072,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B57" t="s">
         <v>583</v>
@@ -23089,7 +23083,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B58" t="s">
         <v>745</v>
@@ -23100,7 +23094,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B59" t="s">
         <v>630</v>
@@ -23111,7 +23105,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B60" t="s">
         <v>552</v>
@@ -23122,7 +23116,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B61" t="s">
         <v>673</v>
@@ -23133,7 +23127,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B62" t="s">
         <v>595</v>
@@ -23146,12 +23140,12 @@
         <v>46.412545000000001</v>
       </c>
       <c r="F62" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" t="s">
@@ -23160,7 +23154,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B64" t="s">
         <v>563</v>
@@ -23171,7 +23165,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B65" t="s">
         <v>583</v>
@@ -23182,7 +23176,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B66" t="s">
         <v>577</v>
@@ -23193,7 +23187,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B67" t="s">
         <v>551</v>
@@ -23204,7 +23198,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B68" t="s">
         <v>567</v>
@@ -23215,7 +23209,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B69" t="s">
         <v>561</v>
@@ -23226,7 +23220,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B70" t="s">
         <v>556</v>
@@ -23237,7 +23231,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B71" t="s">
         <v>577</v>
@@ -23248,7 +23242,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B72" t="s">
         <v>581</v>
@@ -23259,7 +23253,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B73" t="s">
         <v>579</v>
@@ -23270,7 +23264,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B74" t="s">
         <v>582</v>
@@ -23281,7 +23275,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B75" t="s">
         <v>720</v>
@@ -23292,7 +23286,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B76" t="s">
         <v>669</v>
@@ -23303,7 +23297,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B77" t="s">
         <v>637</v>
@@ -23314,7 +23308,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B78" t="s">
         <v>707</v>
@@ -23325,7 +23319,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B79" t="s">
         <v>717</v>
@@ -23336,7 +23330,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B80" t="s">
         <v>580</v>
@@ -23347,7 +23341,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B81" t="s">
         <v>727</v>
@@ -23358,7 +23352,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B82" t="s">
         <v>572</v>
@@ -23369,7 +23363,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B83" t="s">
         <v>598</v>
@@ -23380,7 +23374,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B84" t="s">
         <v>739</v>
@@ -23391,7 +23385,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B85" t="s">
         <v>706</v>
@@ -23402,7 +23396,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B86" t="s">
         <v>721</v>
@@ -23413,7 +23407,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B87" t="s">
         <v>577</v>
@@ -23424,7 +23418,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B88" t="s">
         <v>556</v>
@@ -23435,7 +23429,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B89" t="s">
         <v>571</v>
@@ -23446,7 +23440,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B90" t="s">
         <v>558</v>
@@ -23457,7 +23451,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B91" t="s">
         <v>550</v>
@@ -23468,7 +23462,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B92" t="s">
         <v>631</v>
@@ -23479,7 +23473,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B93" t="s">
         <v>560</v>
@@ -23490,7 +23484,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B94" t="s">
         <v>746</v>
@@ -23501,7 +23495,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B95" t="s">
         <v>560</v>
@@ -23512,7 +23506,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B96" t="s">
         <v>631</v>
@@ -23523,7 +23517,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B97" t="s">
         <v>550</v>
@@ -23534,21 +23528,21 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B98" t="s">
         <v>558</v>
       </c>
       <c r="C98" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B99" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C99" t="s">
         <v>558</v>
@@ -23556,7 +23550,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B100" t="s">
         <v>558</v>
@@ -23567,7 +23561,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B101" t="s">
         <v>571</v>
@@ -29322,7 +29316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0F151F-D3C6-B64A-9E9D-4142E5C7E622}">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/a_in/us_travels.xlsx
+++ b/a_in/us_travels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s9/Code/us_travels_v4/a_in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99EAA8C-9E3E-8B42-B217-3A20357E2634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131E7C43-361D-B949-953D-74593D67E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58020" yWindow="600" windowWidth="14940" windowHeight="18540" firstSheet="2" activeTab="7" xr2:uid="{895BEAD3-490B-3645-811C-E95312094DBD}"/>
+    <workbookView xWindow="58020" yWindow="600" windowWidth="14940" windowHeight="18540" firstSheet="4" activeTab="8" xr2:uid="{895BEAD3-490B-3645-811C-E95312094DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="area_region" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1190">
   <si>
     <t>New York–Newark–Jersey City, NY-NJ MSA</t>
   </si>
@@ -3615,9 +3615,6 @@
   </si>
   <si>
     <t>alt_name</t>
-  </si>
-  <si>
-    <t>msa_visit</t>
   </si>
 </sst>
 </file>
@@ -11078,10 +11075,10 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29463,11 +29460,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD80BCF-5BDD-F243-8775-ADAC49C3889E}">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29483,7 +29480,7 @@
         <v>1139</v>
       </c>
       <c r="B1" t="s">
-        <v>1190</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -30447,7 +30444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA88A3-654C-B946-8BF2-FE437BCA7E83}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/a_in/us_travels.xlsx
+++ b/a_in/us_travels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s9/Code/us_travels_v4/a_in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131E7C43-361D-B949-953D-74593D67E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F08D1E-2045-D44D-81FA-C510F562E10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58020" yWindow="600" windowWidth="14940" windowHeight="18540" firstSheet="4" activeTab="8" xr2:uid="{895BEAD3-490B-3645-811C-E95312094DBD}"/>
+    <workbookView xWindow="58020" yWindow="600" windowWidth="14940" windowHeight="18540" firstSheet="4" activeTab="6" xr2:uid="{895BEAD3-490B-3645-811C-E95312094DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="area_region" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="1193">
   <si>
     <t>New York–Newark–Jersey City, NY-NJ MSA</t>
   </si>
@@ -3482,9 +3482,6 @@
     <t>UVA / Montecello WHS</t>
   </si>
   <si>
-    <t>Merced</t>
-  </si>
-  <si>
     <t>cnt</t>
   </si>
   <si>
@@ -3615,6 +3612,18 @@
   </si>
   <si>
     <t>alt_name</t>
+  </si>
+  <si>
+    <t>Merced CA</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>segment_id</t>
   </si>
 </sst>
 </file>
@@ -4101,7 +4110,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4135,21 +4144,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B3" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B4" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4157,10 +4166,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4168,10 +4177,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B6" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4179,10 +4188,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="B7" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4190,21 +4199,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B8" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B9" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4212,16 +4221,19 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C10">
+    <sortCondition ref="A2:A10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9937,7 +9949,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9972,34 +9984,34 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="C2" s="2">
-        <v>1788</v>
+        <v>1959</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ref="E2:E33" si="0">IF(C2&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>652</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="C3" s="2">
-        <v>1788</v>
+        <v>1819</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>838</v>
@@ -10009,18 +10021,18 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>743</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C4" s="2">
-        <v>1788</v>
+        <v>1836</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>838</v>
@@ -10030,165 +10042,165 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>557</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>693</v>
+        <v>605</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="C5" s="2">
-        <v>1820</v>
+        <v>1912</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>741</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>820</v>
+        <v>785</v>
       </c>
       <c r="C6" s="2">
-        <v>1845</v>
+        <v>1850</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="C7" s="2">
-        <v>1812</v>
+        <v>1876</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>654</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>715</v>
+        <v>632</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="C8" s="2">
-        <v>1889</v>
+        <v>1788</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>728</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>792</v>
+        <v>834</v>
       </c>
       <c r="C9" s="2">
-        <v>1890</v>
+        <v>-1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>661</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>606</v>
+        <v>722</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>829</v>
+        <v>788</v>
       </c>
       <c r="C10" s="2">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>560</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="C11" s="2">
-        <v>1864</v>
+        <v>1845</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>705</v>
+        <v>603</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>824</v>
+        <v>790</v>
       </c>
       <c r="C12" s="2">
-        <v>1863</v>
+        <v>1788</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>838</v>
@@ -10198,123 +10210,123 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>721</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>731</v>
+        <v>640</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>826</v>
+        <v>791</v>
       </c>
       <c r="C13" s="2">
-        <v>1890</v>
+        <v>1959</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>732</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="C14" s="2">
-        <v>1788</v>
+        <v>1846</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="C15" s="2">
-        <v>1803</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>846</v>
+        <v>1890</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>847</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>581</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>699</v>
+        <v>590</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="C16" s="2">
-        <v>1788</v>
+        <v>1818</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="C17" s="2">
-        <v>1876</v>
+        <v>1816</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C18" s="2">
-        <v>1846</v>
+        <v>1861</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>846</v>
@@ -10324,18 +10336,18 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>669</v>
+        <v>717</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>722</v>
+        <v>626</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>788</v>
+        <v>828</v>
       </c>
       <c r="C19" s="2">
-        <v>1787</v>
+        <v>1792</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>838</v>
@@ -10345,18 +10357,18 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>828</v>
+        <v>797</v>
       </c>
       <c r="C20" s="2">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>838</v>
@@ -10366,18 +10378,18 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>739</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C21" s="2">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>843</v>
@@ -10387,81 +10399,81 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>682</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="C22" s="2">
         <v>1788</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>631</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C23" s="2">
-        <v>1889</v>
+        <v>1820</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="C24" s="2">
-        <v>1959</v>
+        <v>1837</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>639</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="C25" s="2">
-        <v>1816</v>
+        <v>1858</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>846</v>
@@ -10471,102 +10483,102 @@
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>684</v>
+        <v>616</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C26" s="2">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>616</v>
+        <v>684</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C27" s="2">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>727</v>
+        <v>683</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="C28" s="2">
-        <v>1959</v>
+        <v>1889</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="C29" s="2">
-        <v>1837</v>
+        <v>1789</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>745</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="C30" s="2">
-        <v>1867</v>
+        <v>1889</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>846</v>
@@ -10576,267 +10588,267 @@
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="C31" s="2">
-        <v>1836</v>
+        <v>1867</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>856</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="C32" s="2">
-        <v>1848</v>
+        <v>1788</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>673</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>612</v>
+        <v>703</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="C33" s="2">
-        <v>1858</v>
+        <v>1787</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>565</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>781</v>
+        <v>809</v>
       </c>
       <c r="C34" s="2">
-        <v>1819</v>
+        <v>1912</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ref="E34:E53" si="1">IF(C34&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>718</v>
+        <v>618</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="C35" s="2">
-        <v>1791</v>
+        <v>1864</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C36" s="2">
-        <v>1796</v>
+        <v>1788</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C37" s="2">
-        <v>1907</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>841</v>
+        <v>1803</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>846</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="C38" s="2">
-        <v>1889</v>
+        <v>1907</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>714</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>783</v>
+        <v>815</v>
       </c>
       <c r="C39" s="2">
-        <v>1912</v>
+        <v>1859</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>559</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>712</v>
+        <v>604</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="C40" s="2">
-        <v>1889</v>
+        <v>1787</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>748</v>
+        <v>682</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>623</v>
+        <v>734</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="C41" s="2">
-        <v>1790</v>
+        <v>-1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>594</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C42" s="2">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="C43" s="2">
         <v>1788</v>
@@ -10849,60 +10861,60 @@
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>599</v>
+        <v>657</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>589</v>
+        <v>712</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>785</v>
+        <v>818</v>
       </c>
       <c r="C44" s="2">
-        <v>1850</v>
+        <v>1889</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>576</v>
+        <v>748</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C45" s="2">
-        <v>1859</v>
+        <v>1796</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>710</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C46" s="2">
-        <v>1896</v>
+        <v>1845</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>841</v>
@@ -10912,102 +10924,102 @@
         <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>734</v>
+        <v>627</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="C47" s="2">
-        <v>-1</v>
+        <v>1896</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>733</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="C48" s="2">
-        <v>1912</v>
+        <v>1788</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>726</v>
+        <v>599</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>590</v>
+        <v>718</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>793</v>
+        <v>822</v>
       </c>
       <c r="C49" s="2">
-        <v>1818</v>
+        <v>1791</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>789</v>
+        <v>823</v>
       </c>
       <c r="C50" s="2">
-        <v>1845</v>
+        <v>1889</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>796</v>
+        <v>825</v>
       </c>
       <c r="C51" s="2">
-        <v>1861</v>
+        <v>1848</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>846</v>
@@ -11017,54 +11029,54 @@
         <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="C52" s="2">
-        <v>1787</v>
+        <v>1863</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>609</v>
+        <v>731</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="C53" s="2">
-        <v>-1</v>
+        <v>1890</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>556</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F53">
-    <sortCondition ref="F2:F53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F53">
+    <sortCondition ref="A2:A53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11075,10 +11087,10 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11104,10 +11116,10 @@
         <v>587</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1142</v>
@@ -11519,7 +11531,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1145</v>
+        <v>1189</v>
       </c>
       <c r="B13" t="s">
         <v>589</v>
@@ -12786,7 +12798,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I48" s="10">
         <v>156840</v>
@@ -13541,7 +13553,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B70" t="s">
         <v>703</v>
@@ -13555,13 +13567,13 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I70" s="12">
         <v>93875</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K70" t="s">
         <v>17</v>
@@ -24334,7 +24346,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26156,7 +26168,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G86">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F86">
     <sortCondition ref="B2:B86"/>
     <sortCondition ref="C2:C86"/>
   </sortState>
@@ -26174,10 +26186,10 @@
   <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26204,1010 +26216,1010 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>652</v>
+        <v>702</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="C2">
-        <v>-73.756231700000001</v>
+        <v>-149.9002778</v>
       </c>
       <c r="D2">
-        <v>42.652579299999999</v>
+        <v>61.2180556</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>648</v>
+        <v>860</v>
       </c>
       <c r="B3" t="s">
-        <v>649</v>
+        <v>701</v>
       </c>
       <c r="C3">
-        <v>-106.65042200000001</v>
+        <v>-147.72305600000001</v>
       </c>
       <c r="D3">
-        <v>35.084385900000001</v>
+        <v>64.843610999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>702</v>
+        <v>737</v>
       </c>
       <c r="B4" t="s">
         <v>701</v>
       </c>
       <c r="C4">
-        <v>-149.9002778</v>
+        <v>-134.42161300000001</v>
       </c>
       <c r="D4">
-        <v>61.2180556</v>
+        <v>58.301448999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>602</v>
       </c>
       <c r="B5" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="C5">
-        <v>-76.492182900000003</v>
+        <v>-86.8103567</v>
       </c>
       <c r="D5">
-        <v>38.978445299999997</v>
+        <v>33.518589200000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>862</v>
+        <v>708</v>
       </c>
       <c r="B6" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="C6">
-        <v>-82.682777999999999</v>
-      </c>
-      <c r="D6" s="6">
-        <v>35.600555999999997</v>
+        <v>-86.307736800000001</v>
+      </c>
+      <c r="D6">
+        <v>32.3792233</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>557</v>
+        <v>856</v>
       </c>
       <c r="B7" t="s">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="C7">
-        <v>-84.387982399999999</v>
+        <v>-92.289594800000003</v>
       </c>
       <c r="D7">
-        <v>33.748995399999998</v>
+        <v>34.746480900000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>741</v>
+        <v>867</v>
       </c>
       <c r="B8" t="s">
-        <v>693</v>
+        <v>605</v>
       </c>
       <c r="C8">
-        <v>-69.779489699999999</v>
+        <v>-111.62</v>
       </c>
       <c r="D8">
-        <v>44.310624099999998</v>
+        <v>35.180556000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C9">
-        <v>-97.743060799999995</v>
+        <v>-112.0740373</v>
       </c>
       <c r="D9">
-        <v>30.267153</v>
+        <v>33.448377100000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>571</v>
+        <v>634</v>
       </c>
       <c r="B10" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C10">
-        <v>-76.612189299999997</v>
+        <v>-110.9747108</v>
       </c>
       <c r="D10">
-        <v>39.290384799999998</v>
+        <v>32.222606599999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>654</v>
+        <v>967</v>
       </c>
       <c r="B11" t="s">
-        <v>645</v>
+        <v>589</v>
       </c>
       <c r="C11">
-        <v>-91.187146600000005</v>
+        <v>-124.163611</v>
       </c>
       <c r="D11">
-        <v>30.451467699999998</v>
+        <v>40.801943999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>725</v>
+        <v>629</v>
       </c>
       <c r="B12" t="s">
-        <v>724</v>
+        <v>589</v>
       </c>
       <c r="C12">
-        <v>-108.5006904</v>
+        <v>-119.78712470000001</v>
       </c>
       <c r="D12">
-        <v>45.783285599999999</v>
+        <v>36.737798099999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>602</v>
+        <v>551</v>
       </c>
       <c r="B13" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="C13">
-        <v>-86.8103567</v>
+        <v>-118.24368490000001</v>
       </c>
       <c r="D13">
-        <v>33.518589200000001</v>
+        <v>34.052234200000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>728</v>
+        <v>561</v>
       </c>
       <c r="B14" t="s">
-        <v>715</v>
+        <v>589</v>
       </c>
       <c r="C14">
-        <v>-100.7837392</v>
+        <v>-117.37549420000001</v>
       </c>
       <c r="D14">
-        <v>46.808326800000003</v>
+        <v>33.980600500000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>661</v>
+        <v>576</v>
       </c>
       <c r="B15" t="s">
-        <v>662</v>
+        <v>589</v>
       </c>
       <c r="C15">
-        <v>-116.2023137</v>
+        <v>-121.49439959999999</v>
       </c>
       <c r="D15">
-        <v>43.615018599999999</v>
+        <v>38.5815719</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B16" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="C16">
-        <v>-71.058880099999996</v>
+        <v>-117.1610838</v>
       </c>
       <c r="D16">
-        <v>42.360082499999997</v>
+        <v>32.715738000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>864</v>
+        <v>562</v>
       </c>
       <c r="B17" t="s">
-        <v>626</v>
-      </c>
-      <c r="C17" s="6">
-        <v>-86.444444000000004</v>
-      </c>
-      <c r="D17" s="6">
-        <v>36.981667000000002</v>
+        <v>589</v>
+      </c>
+      <c r="C17">
+        <v>-122.4194155</v>
+      </c>
+      <c r="D17">
+        <v>37.774929499999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>863</v>
+        <v>591</v>
       </c>
       <c r="B18" t="s">
-        <v>724</v>
+        <v>589</v>
       </c>
       <c r="C18">
-        <v>-111.047222</v>
+        <v>-121.8863286</v>
       </c>
       <c r="D18">
-        <v>45.677778000000004</v>
+        <v>37.338208199999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="B19" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="C19">
-        <v>-122.744444</v>
+        <v>-119.7</v>
       </c>
       <c r="D19">
-        <v>47.538888999999998</v>
+        <v>34.416666999999997</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>633</v>
+        <v>968</v>
       </c>
       <c r="B20" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C20">
-        <v>-78.878368899999998</v>
+        <v>-120.38166699999999</v>
       </c>
       <c r="D20">
-        <v>42.886446800000002</v>
+        <v>37.984444000000003</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>719</v>
+        <v>868</v>
       </c>
       <c r="B21" t="s">
-        <v>718</v>
+        <v>613</v>
       </c>
       <c r="C21">
-        <v>-73.212072000000006</v>
+        <v>-104.825278</v>
       </c>
       <c r="D21">
-        <v>44.475882499999997</v>
+        <v>38.833888999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>729</v>
+        <v>568</v>
       </c>
       <c r="B22" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C22">
-        <v>-119.76740340000001</v>
+        <v>-104.990251</v>
       </c>
       <c r="D22">
-        <v>39.163798399999997</v>
+        <v>39.739235800000003</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>869</v>
+        <v>631</v>
       </c>
       <c r="B23" t="s">
-        <v>731</v>
+        <v>632</v>
       </c>
       <c r="C23">
-        <v>-106.2980824</v>
+        <v>-72.673372299999997</v>
       </c>
       <c r="D23">
-        <v>42.848708999999999</v>
+        <v>41.765804299999999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>658</v>
+        <v>689</v>
       </c>
       <c r="B24" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C24">
-        <v>-79.931051199999999</v>
+        <v>-72.923610999999994</v>
       </c>
       <c r="D24">
-        <v>32.776474899999997</v>
+        <v>41.31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>721</v>
+        <v>556</v>
       </c>
       <c r="B25" t="s">
-        <v>705</v>
+        <v>609</v>
       </c>
       <c r="C25">
-        <v>-81.6326234</v>
+        <v>-77.036870699999994</v>
       </c>
       <c r="D25">
-        <v>38.349819500000002</v>
+        <v>38.907192299999998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>570</v>
+        <v>723</v>
       </c>
       <c r="B26" t="s">
-        <v>614</v>
+        <v>722</v>
       </c>
       <c r="C26">
-        <v>-80.843126699999999</v>
+        <v>-75.524368199999998</v>
       </c>
       <c r="D26">
-        <v>35.227086900000003</v>
+        <v>39.158168000000003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>858</v>
+        <v>593</v>
       </c>
       <c r="B27" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C27">
-        <v>-78.476678100000001</v>
+        <v>-81.655651000000006</v>
       </c>
       <c r="D27">
-        <v>38.029305899999997</v>
+        <v>30.332183799999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>732</v>
+        <v>969</v>
       </c>
       <c r="B28" t="s">
-        <v>731</v>
+        <v>608</v>
       </c>
       <c r="C28">
-        <v>-104.8202462</v>
+        <v>-81.781943999999996</v>
       </c>
       <c r="D28">
-        <v>41.139981400000003</v>
+        <v>24.555</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B29" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="C29">
-        <v>-87.629798199999996</v>
+        <v>-80.1917902</v>
       </c>
       <c r="D29">
-        <v>41.878113599999999</v>
+        <v>25.7616798</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B30" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C30">
-        <v>-84.512019600000002</v>
+        <v>-81.378926899999996</v>
       </c>
       <c r="D30">
-        <v>39.103118199999997</v>
+        <v>28.538383199999998</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>583</v>
+        <v>709</v>
       </c>
       <c r="B31" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C31">
-        <v>-81.694360500000002</v>
+        <v>-84.280732900000004</v>
       </c>
       <c r="D31">
-        <v>41.499319999999997</v>
+        <v>30.438255900000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>971</v>
+        <v>566</v>
       </c>
       <c r="B32" t="s">
-        <v>662</v>
+        <v>608</v>
       </c>
       <c r="C32">
-        <v>-116.78</v>
+        <v>-82.457177599999994</v>
       </c>
       <c r="D32">
-        <v>47.692777999999997</v>
+        <v>27.950575000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>868</v>
+        <v>557</v>
       </c>
       <c r="B33" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C33">
-        <v>-104.825278</v>
+        <v>-84.387982399999999</v>
       </c>
       <c r="D33">
-        <v>38.833888999999999</v>
+        <v>33.748995399999998</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>657</v>
+        <v>865</v>
       </c>
       <c r="B34" t="s">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="C34">
-        <v>-81.034814400000002</v>
+        <v>-81.091202999999993</v>
       </c>
       <c r="D34">
-        <v>34.000710400000003</v>
+        <v>32.080898900000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="B35" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="C35">
-        <v>-82.998794200000006</v>
+        <v>-157.8583333</v>
       </c>
       <c r="D35">
-        <v>39.961175500000003</v>
+        <v>21.306944399999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>746</v>
+        <v>872</v>
       </c>
       <c r="B36" t="s">
-        <v>699</v>
+        <v>670</v>
       </c>
       <c r="C36">
-        <v>-71.537571799999995</v>
+        <v>-90.577636699999999</v>
       </c>
       <c r="D36">
-        <v>43.208136600000003</v>
+        <v>41.523643700000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>553</v>
+        <v>669</v>
       </c>
       <c r="B37" t="s">
-        <v>607</v>
+        <v>670</v>
       </c>
       <c r="C37">
-        <v>-96.796987900000005</v>
+        <v>-93.6249593</v>
       </c>
       <c r="D37">
-        <v>32.776664199999999</v>
+        <v>41.586835299999997</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>872</v>
+        <v>661</v>
       </c>
       <c r="B38" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="C38">
-        <v>-90.577636699999999</v>
+        <v>-116.2023137</v>
       </c>
       <c r="D38">
-        <v>41.523643700000001</v>
+        <v>43.615018599999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>568</v>
+        <v>971</v>
       </c>
       <c r="B39" t="s">
-        <v>613</v>
+        <v>662</v>
       </c>
       <c r="C39">
-        <v>-104.990251</v>
+        <v>-116.78</v>
       </c>
       <c r="D39">
-        <v>39.739235800000003</v>
+        <v>47.692777999999997</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>669</v>
+        <v>552</v>
       </c>
       <c r="B40" t="s">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="C40">
-        <v>-93.6249593</v>
+        <v>-87.629798199999996</v>
       </c>
       <c r="D40">
-        <v>41.586835299999997</v>
+        <v>41.878113599999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>563</v>
+        <v>720</v>
       </c>
       <c r="B41" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="C41">
-        <v>-83.0457538</v>
+        <v>-89.650148099999996</v>
       </c>
       <c r="D41">
-        <v>42.331426999999998</v>
+        <v>39.781721300000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>723</v>
+        <v>582</v>
       </c>
       <c r="B42" t="s">
-        <v>722</v>
+        <v>620</v>
       </c>
       <c r="C42">
-        <v>-75.524368199999998</v>
+        <v>-86.158068</v>
       </c>
       <c r="D42">
-        <v>39.158168000000003</v>
+        <v>39.768402999999999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>656</v>
+        <v>717</v>
       </c>
       <c r="B43" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="C43">
-        <v>-106.48861100000001</v>
+        <v>-95.675157600000006</v>
       </c>
       <c r="D43">
-        <v>31.759167000000001</v>
+        <v>39.047345100000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="B44" t="s">
-        <v>589</v>
+        <v>677</v>
       </c>
       <c r="C44">
-        <v>-124.163611</v>
+        <v>-97.330053000000007</v>
       </c>
       <c r="D44">
-        <v>40.801943999999999</v>
+        <v>37.687176100000002</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B45" t="s">
-        <v>701</v>
-      </c>
-      <c r="C45">
-        <v>-147.72305600000001</v>
-      </c>
-      <c r="D45">
-        <v>64.843610999999996</v>
+        <v>626</v>
+      </c>
+      <c r="C45" s="6">
+        <v>-86.444444000000004</v>
+      </c>
+      <c r="D45" s="6">
+        <v>36.981667000000002</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="B46" t="s">
-        <v>715</v>
+        <v>626</v>
       </c>
       <c r="C46">
-        <v>-96.789803399999997</v>
+        <v>-84.873283499999999</v>
       </c>
       <c r="D46">
-        <v>46.877186299999998</v>
+        <v>38.200905499999998</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>867</v>
+        <v>598</v>
       </c>
       <c r="B47" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="C47">
-        <v>-111.62</v>
+        <v>-85.758455699999999</v>
       </c>
       <c r="D47">
-        <v>35.180556000000003</v>
+        <v>38.252664699999997</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>739</v>
+        <v>654</v>
       </c>
       <c r="B48" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="C48">
-        <v>-84.873283499999999</v>
+        <v>-91.187146600000005</v>
       </c>
       <c r="D48">
-        <v>38.200905499999998</v>
+        <v>30.451467699999998</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="B49" t="s">
-        <v>589</v>
+        <v>645</v>
       </c>
       <c r="C49">
-        <v>-119.78712470000001</v>
+        <v>-90.071532300000001</v>
       </c>
       <c r="D49">
-        <v>36.737798099999999</v>
+        <v>29.951065799999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>630</v>
+        <v>560</v>
       </c>
       <c r="B50" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C50">
-        <v>-85.668086299999999</v>
+        <v>-71.058880099999996</v>
       </c>
       <c r="D50">
-        <v>42.9633599</v>
+        <v>42.360082499999997</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>861</v>
+        <v>743</v>
       </c>
       <c r="B51" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C51">
-        <v>-123.328333</v>
+        <v>-76.492182900000003</v>
       </c>
       <c r="D51">
-        <v>42.438889000000003</v>
+        <v>38.978445299999997</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>641</v>
+        <v>571</v>
       </c>
       <c r="B52" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="C52">
-        <v>-82.413332999999994</v>
+        <v>-76.612189299999997</v>
       </c>
       <c r="D52">
-        <v>34.861111000000001</v>
+        <v>39.290384799999998</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>682</v>
+        <v>741</v>
       </c>
       <c r="B53" t="s">
-        <v>604</v>
+        <v>693</v>
       </c>
       <c r="C53">
-        <v>-76.8867008</v>
+        <v>-69.779489699999999</v>
       </c>
       <c r="D53">
-        <v>40.273191099999998</v>
+        <v>44.310624099999998</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>631</v>
+        <v>692</v>
       </c>
       <c r="B54" t="s">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="C54">
-        <v>-72.673372299999997</v>
+        <v>-70.256818899999999</v>
       </c>
       <c r="D54">
-        <v>41.765804299999999</v>
+        <v>43.659099300000001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>730</v>
+        <v>563</v>
       </c>
       <c r="B55" t="s">
-        <v>724</v>
+        <v>610</v>
       </c>
       <c r="C55">
-        <v>-112.03910569999999</v>
+        <v>-83.0457538</v>
       </c>
       <c r="D55">
-        <v>46.589145199999997</v>
+        <v>42.331426999999998</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B56" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="C56">
-        <v>-157.8583333</v>
+        <v>-85.668086299999999</v>
       </c>
       <c r="D56">
-        <v>21.306944399999999</v>
+        <v>42.9633599</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>554</v>
+        <v>745</v>
       </c>
       <c r="B57" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C57">
-        <v>-95.369802800000002</v>
+        <v>-84.555534699999995</v>
       </c>
       <c r="D57">
-        <v>29.7604267</v>
+        <v>42.732534999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>706</v>
+        <v>565</v>
       </c>
       <c r="B58" t="s">
-        <v>705</v>
+        <v>612</v>
       </c>
       <c r="C58">
-        <v>-82.445153000000005</v>
+        <v>-93.265010799999999</v>
       </c>
       <c r="D58">
-        <v>38.419249999999998</v>
+        <v>44.977753</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>582</v>
+        <v>727</v>
       </c>
       <c r="B59" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C59">
-        <v>-86.158068</v>
+        <v>-92.173516399999997</v>
       </c>
       <c r="D59">
-        <v>39.768402999999999</v>
+        <v>38.576701700000001</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>683</v>
+        <v>580</v>
       </c>
       <c r="B60" t="s">
-        <v>684</v>
+        <v>616</v>
       </c>
       <c r="C60">
-        <v>-90.184810299999995</v>
+        <v>-94.578566699999996</v>
       </c>
       <c r="D60">
-        <v>32.298757299999998</v>
+        <v>39.099726500000003</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="B61" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="C61">
-        <v>-81.655651000000006</v>
+        <v>-90.199404200000004</v>
       </c>
       <c r="D61">
-        <v>30.332183799999999</v>
+        <v>38.627002500000003</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>727</v>
+        <v>683</v>
       </c>
       <c r="B62" t="s">
-        <v>616</v>
+        <v>684</v>
       </c>
       <c r="C62">
-        <v>-92.173516399999997</v>
+        <v>-90.184810299999995</v>
       </c>
       <c r="D62">
-        <v>38.576701700000001</v>
+        <v>32.298757299999998</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="B63" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="C63">
-        <v>-134.42161300000001</v>
+        <v>-108.5006904</v>
       </c>
       <c r="D63">
-        <v>58.301448999999998</v>
+        <v>45.783285599999999</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>580</v>
+        <v>863</v>
       </c>
       <c r="B64" t="s">
-        <v>616</v>
+        <v>724</v>
       </c>
       <c r="C64">
-        <v>-94.578566699999996</v>
+        <v>-111.047222</v>
       </c>
       <c r="D64">
-        <v>39.099726500000003</v>
+        <v>45.677778000000004</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>969</v>
+        <v>730</v>
       </c>
       <c r="B65" t="s">
-        <v>608</v>
+        <v>724</v>
       </c>
       <c r="C65">
-        <v>-81.781943999999996</v>
+        <v>-112.03910569999999</v>
       </c>
       <c r="D65">
-        <v>24.555</v>
+        <v>46.589145199999997</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>646</v>
+        <v>862</v>
       </c>
       <c r="B66" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C66">
-        <v>-83.9207392</v>
-      </c>
-      <c r="D66">
-        <v>35.960638400000001</v>
+        <v>-82.682777999999999</v>
+      </c>
+      <c r="D66" s="6">
+        <v>35.600555999999997</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>745</v>
+        <v>570</v>
       </c>
       <c r="B67" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C67">
-        <v>-84.555534699999995</v>
+        <v>-80.843126699999999</v>
       </c>
       <c r="D67">
-        <v>42.732534999999999</v>
+        <v>35.227086900000003</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="B68" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C68">
-        <v>-115.1398296</v>
+        <v>-78.638178699999997</v>
       </c>
       <c r="D68">
-        <v>36.169941199999997</v>
+        <v>35.779589700000002</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="B69" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="C69">
-        <v>-96.702595500000001</v>
+        <v>-100.7837392</v>
       </c>
       <c r="D69">
-        <v>40.813616000000003</v>
+        <v>46.808326800000003</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>856</v>
+        <v>716</v>
       </c>
       <c r="B70" t="s">
-        <v>667</v>
+        <v>715</v>
       </c>
       <c r="C70">
-        <v>-92.289594800000003</v>
+        <v>-96.789803399999997</v>
       </c>
       <c r="D70">
-        <v>34.746480900000002</v>
+        <v>46.877186299999998</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>551</v>
+        <v>707</v>
       </c>
       <c r="B71" t="s">
-        <v>589</v>
+        <v>638</v>
       </c>
       <c r="C71">
-        <v>-118.24368490000001</v>
+        <v>-96.702595500000001</v>
       </c>
       <c r="D71">
-        <v>34.052234200000001</v>
+        <v>40.813616000000003</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>598</v>
+        <v>637</v>
       </c>
       <c r="B72" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C72">
-        <v>-85.758455699999999</v>
+        <v>-95.934503399999997</v>
       </c>
       <c r="D72">
-        <v>38.252664699999997</v>
+        <v>41.2565369</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>673</v>
+        <v>746</v>
       </c>
       <c r="B73" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="C73">
-        <v>-89.401230200000001</v>
+        <v>-71.537571799999995</v>
       </c>
       <c r="D73">
-        <v>43.073051700000001</v>
+        <v>43.208136600000003</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -27226,310 +27238,310 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>600</v>
+        <v>704</v>
       </c>
       <c r="B75" t="s">
-        <v>621</v>
+        <v>703</v>
       </c>
       <c r="C75">
-        <v>-90.048980099999994</v>
+        <v>-74.759716999999995</v>
       </c>
       <c r="D75">
-        <v>35.149534299999999</v>
+        <v>40.220582399999998</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>555</v>
+        <v>648</v>
       </c>
       <c r="B76" t="s">
-        <v>608</v>
+        <v>649</v>
       </c>
       <c r="C76">
-        <v>-80.1917902</v>
+        <v>-106.65042200000001</v>
       </c>
       <c r="D76">
-        <v>25.7616798</v>
+        <v>35.084385900000001</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>595</v>
+        <v>726</v>
       </c>
       <c r="B77" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="C77">
-        <v>-87.906473599999998</v>
+        <v>-105.937799</v>
       </c>
       <c r="D77">
-        <v>43.038902499999999</v>
+        <v>35.686975199999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>565</v>
+        <v>973</v>
       </c>
       <c r="B78" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="C78">
-        <v>-93.265010799999999</v>
+        <v>-105.576667</v>
       </c>
       <c r="D78">
-        <v>44.977753</v>
+        <v>36.393889000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="B79" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C79">
-        <v>-86.307736800000001</v>
+        <v>-119.76740340000001</v>
       </c>
       <c r="D79">
-        <v>32.3792233</v>
+        <v>39.163798399999997</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>751</v>
+        <v>578</v>
       </c>
       <c r="B80" t="s">
-        <v>718</v>
+        <v>618</v>
       </c>
       <c r="C80">
-        <v>-72.575386899999998</v>
+        <v>-115.1398296</v>
       </c>
       <c r="D80">
-        <v>44.260059300000002</v>
+        <v>36.169941199999997</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>897</v>
+        <v>652</v>
       </c>
       <c r="B81" t="s">
-        <v>705</v>
+        <v>588</v>
       </c>
       <c r="C81">
-        <v>-79.950556000000006</v>
+        <v>-73.756231700000001</v>
       </c>
       <c r="D81">
-        <v>39.633611000000002</v>
+        <v>42.652579299999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="B82" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="C82">
-        <v>-86.781601600000002</v>
+        <v>-78.878368899999998</v>
       </c>
       <c r="D82">
-        <v>36.162663799999997</v>
+        <v>42.886446800000002</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>689</v>
+        <v>550</v>
       </c>
       <c r="B83" t="s">
-        <v>632</v>
+        <v>588</v>
       </c>
       <c r="C83">
-        <v>-72.923610999999994</v>
+        <v>-74.005972799999995</v>
       </c>
       <c r="D83">
-        <v>41.31</v>
+        <v>40.712775299999997</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B84" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="C84">
-        <v>-90.071532300000001</v>
+        <v>-77.608846499999999</v>
       </c>
       <c r="D84">
-        <v>29.951065799999999</v>
+        <v>43.156577900000002</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="B85" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="C85">
-        <v>-74.005972799999995</v>
+        <v>-84.512019600000002</v>
       </c>
       <c r="D85">
-        <v>40.712775299999997</v>
+        <v>39.103118199999997</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B86" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C86">
-        <v>-97.5164276</v>
+        <v>-81.694360500000002</v>
       </c>
       <c r="D86">
-        <v>35.467560200000001</v>
+        <v>41.499319999999997</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>714</v>
+        <v>581</v>
       </c>
       <c r="B87" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C87">
-        <v>-122.90069509999999</v>
+        <v>-82.998794200000006</v>
       </c>
       <c r="D87">
-        <v>47.037874100000003</v>
+        <v>39.961175500000003</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="B88" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="C88">
-        <v>-95.934503399999997</v>
+        <v>-97.5164276</v>
       </c>
       <c r="D88">
-        <v>41.2565369</v>
+        <v>35.467560200000001</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="B89" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="C89">
-        <v>-81.378926899999996</v>
+        <v>-95.992774999999995</v>
       </c>
       <c r="D89">
-        <v>28.538383199999998</v>
+        <v>36.153981600000002</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>558</v>
+        <v>861</v>
       </c>
       <c r="B90" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="C90">
-        <v>-75.165221500000001</v>
+        <v>-123.328333</v>
       </c>
       <c r="D90">
-        <v>39.9525839</v>
+        <v>42.438889000000003</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="B91" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="C91">
-        <v>-112.0740373</v>
+        <v>-122.6783853</v>
       </c>
       <c r="D91">
-        <v>33.448377100000002</v>
+        <v>45.515231999999997</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>748</v>
+        <v>710</v>
       </c>
       <c r="B92" t="s">
-        <v>712</v>
+        <v>617</v>
       </c>
       <c r="C92">
-        <v>-100.3537522</v>
+        <v>-123.03509630000001</v>
       </c>
       <c r="D92">
-        <v>44.366787600000002</v>
+        <v>44.942897500000001</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>577</v>
+        <v>682</v>
       </c>
       <c r="B93" t="s">
         <v>604</v>
       </c>
       <c r="C93">
-        <v>-79.995886400000003</v>
+        <v>-76.8867008</v>
       </c>
       <c r="D93">
-        <v>40.440624800000002</v>
+        <v>40.273191099999998</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>970</v>
+        <v>558</v>
       </c>
       <c r="B94" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C94">
-        <v>-123.440833</v>
+        <v>-75.165221500000001</v>
       </c>
       <c r="D94">
-        <v>48.113056</v>
+        <v>39.9525839</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>692</v>
+        <v>577</v>
       </c>
       <c r="B95" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="C95">
-        <v>-70.256818899999999</v>
+        <v>-79.995886400000003</v>
       </c>
       <c r="D95">
-        <v>43.659099300000001</v>
+        <v>40.440624800000002</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>575</v>
+        <v>733</v>
       </c>
       <c r="B96" t="s">
-        <v>617</v>
+        <v>734</v>
       </c>
       <c r="C96">
-        <v>-122.6783853</v>
+        <v>-66.105735499999994</v>
       </c>
       <c r="D96">
-        <v>45.515231999999997</v>
+        <v>18.465539400000001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -27548,450 +27560,450 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B98" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="C98">
-        <v>-111.660833</v>
+        <v>-79.931051199999999</v>
       </c>
       <c r="D98">
-        <v>40.244444000000001</v>
+        <v>32.776474899999997</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>596</v>
+        <v>657</v>
       </c>
       <c r="B99" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="C99">
-        <v>-78.638178699999997</v>
+        <v>-81.034814400000002</v>
       </c>
       <c r="D99">
-        <v>35.779589700000002</v>
+        <v>34.000710400000003</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>859</v>
+        <v>641</v>
       </c>
       <c r="B100" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="C100">
-        <v>-103.220833</v>
+        <v>-82.413332999999994</v>
       </c>
       <c r="D100">
-        <v>44.071389000000003</v>
+        <v>34.861111000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>599</v>
+        <v>748</v>
       </c>
       <c r="B101" t="s">
-        <v>622</v>
+        <v>712</v>
       </c>
       <c r="C101">
-        <v>-77.436048099999994</v>
+        <v>-100.3537522</v>
       </c>
       <c r="D101">
-        <v>37.540724599999997</v>
+        <v>44.366787600000002</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>561</v>
+        <v>859</v>
       </c>
       <c r="B102" t="s">
-        <v>589</v>
+        <v>712</v>
       </c>
       <c r="C102">
-        <v>-117.37549420000001</v>
+        <v>-103.220833</v>
       </c>
       <c r="D102">
-        <v>33.980600500000001</v>
+        <v>44.071389000000003</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="B103" t="s">
-        <v>588</v>
+        <v>712</v>
       </c>
       <c r="C103">
-        <v>-77.608846499999999</v>
+        <v>-96.731264999999993</v>
       </c>
       <c r="D103">
-        <v>43.156577900000002</v>
+        <v>43.546022299999997</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="B104" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="C104">
-        <v>-121.49439959999999</v>
+        <v>-83.9207392</v>
       </c>
       <c r="D104">
-        <v>38.5815719</v>
+        <v>35.960638400000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>710</v>
+        <v>600</v>
       </c>
       <c r="B105" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C105">
-        <v>-123.03509630000001</v>
+        <v>-90.048980099999994</v>
       </c>
       <c r="D105">
-        <v>44.942897500000001</v>
+        <v>35.149534299999999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="B106" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C106">
-        <v>-111.89104740000001</v>
+        <v>-86.781601600000002</v>
       </c>
       <c r="D106">
-        <v>40.760779300000003</v>
+        <v>36.162663799999997</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B107" t="s">
         <v>607</v>
       </c>
       <c r="C107">
-        <v>-98.493628200000003</v>
+        <v>-97.743060799999995</v>
       </c>
       <c r="D107">
-        <v>29.424121899999999</v>
+        <v>30.267153</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B108" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="C108">
-        <v>-117.1610838</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="D108">
-        <v>32.715738000000002</v>
+        <v>32.776664199999999</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="B109" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="C109">
-        <v>-122.4194155</v>
+        <v>-106.48861100000001</v>
       </c>
       <c r="D109">
-        <v>37.774929499999999</v>
+        <v>31.759167000000001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="B110" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="C110">
-        <v>-121.8863286</v>
+        <v>-95.369802800000002</v>
       </c>
       <c r="D110">
-        <v>37.338208199999997</v>
+        <v>29.7604267</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>733</v>
+        <v>573</v>
       </c>
       <c r="B111" t="s">
-        <v>734</v>
+        <v>607</v>
       </c>
       <c r="C111">
-        <v>-66.105735499999994</v>
+        <v>-98.493628200000003</v>
       </c>
       <c r="D111">
-        <v>18.465539400000001</v>
+        <v>29.424121899999999</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>866</v>
+        <v>668</v>
       </c>
       <c r="B112" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="C112">
-        <v>-119.7</v>
+        <v>-111.660833</v>
       </c>
       <c r="D112">
-        <v>34.416666999999997</v>
+        <v>40.244444000000001</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>726</v>
+        <v>601</v>
       </c>
       <c r="B113" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="C113">
-        <v>-105.937799</v>
+        <v>-111.89104740000001</v>
       </c>
       <c r="D113">
-        <v>35.686975199999999</v>
+        <v>40.760779300000003</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="B114" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="C114">
-        <v>-81.091202999999993</v>
+        <v>-78.476678100000001</v>
       </c>
       <c r="D114">
-        <v>32.080898900000001</v>
+        <v>38.029305899999997</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>564</v>
+        <v>599</v>
       </c>
       <c r="B115" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C115">
-        <v>-122.3320708</v>
+        <v>-77.436048099999994</v>
       </c>
       <c r="D115">
-        <v>47.606209499999999</v>
+        <v>37.540724599999997</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>713</v>
+        <v>592</v>
       </c>
       <c r="B116" t="s">
-        <v>712</v>
+        <v>622</v>
       </c>
       <c r="C116">
-        <v>-96.731264999999993</v>
+        <v>-76.285872600000005</v>
       </c>
       <c r="D116">
-        <v>43.546022299999997</v>
+        <v>36.850768899999998</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>968</v>
+        <v>719</v>
       </c>
       <c r="B117" t="s">
-        <v>589</v>
+        <v>718</v>
       </c>
       <c r="C117">
-        <v>-120.38166699999999</v>
+        <v>-73.212072000000006</v>
       </c>
       <c r="D117">
-        <v>37.984444000000003</v>
+        <v>44.475882499999997</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="B118" t="s">
-        <v>590</v>
+        <v>718</v>
       </c>
       <c r="C118">
-        <v>-89.650148099999996</v>
+        <v>-72.575386899999998</v>
       </c>
       <c r="D118">
-        <v>39.781721300000001</v>
+        <v>44.260059300000002</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>572</v>
+        <v>857</v>
       </c>
       <c r="B119" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C119">
-        <v>-90.199404200000004</v>
+        <v>-122.744444</v>
       </c>
       <c r="D119">
-        <v>38.627002500000003</v>
+        <v>47.538888999999998</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="B120" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C120">
-        <v>-84.280732900000004</v>
+        <v>-122.90069509999999</v>
       </c>
       <c r="D120">
-        <v>30.438255900000001</v>
+        <v>47.037874100000003</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>566</v>
+        <v>970</v>
       </c>
       <c r="B121" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C121">
-        <v>-82.457177599999994</v>
+        <v>-123.440833</v>
       </c>
       <c r="D121">
-        <v>27.950575000000001</v>
+        <v>48.113056</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>973</v>
+        <v>564</v>
       </c>
       <c r="B122" t="s">
-        <v>649</v>
+        <v>611</v>
       </c>
       <c r="C122">
-        <v>-105.576667</v>
+        <v>-122.3320708</v>
       </c>
       <c r="D122">
-        <v>36.393889000000001</v>
+        <v>47.606209499999999</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="B123" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="C123">
-        <v>-95.675157600000006</v>
+        <v>-89.401230200000001</v>
       </c>
       <c r="D123">
-        <v>39.047345100000001</v>
+        <v>43.073051700000001</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>704</v>
+        <v>595</v>
       </c>
       <c r="B124" t="s">
-        <v>703</v>
+        <v>624</v>
       </c>
       <c r="C124">
-        <v>-74.759716999999995</v>
+        <v>-87.906473599999998</v>
       </c>
       <c r="D124">
-        <v>40.220582399999998</v>
+        <v>43.038902499999999</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>634</v>
+        <v>721</v>
       </c>
       <c r="B125" t="s">
-        <v>605</v>
+        <v>705</v>
       </c>
       <c r="C125">
-        <v>-110.9747108</v>
+        <v>-81.6326234</v>
       </c>
       <c r="D125">
-        <v>32.222606599999999</v>
+        <v>38.349819500000002</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="B126" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="C126">
-        <v>-95.992774999999995</v>
+        <v>-82.445153000000005</v>
       </c>
       <c r="D126">
-        <v>36.153981600000002</v>
+        <v>38.419249999999998</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>592</v>
+        <v>897</v>
       </c>
       <c r="B127" t="s">
-        <v>622</v>
+        <v>705</v>
       </c>
       <c r="C127">
-        <v>-76.285872600000005</v>
+        <v>-79.950556000000006</v>
       </c>
       <c r="D127">
-        <v>36.850768899999998</v>
+        <v>39.633611000000002</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>556</v>
+        <v>869</v>
       </c>
       <c r="B128" t="s">
-        <v>609</v>
+        <v>731</v>
       </c>
       <c r="C128">
-        <v>-77.036870699999994</v>
+        <v>-106.2980824</v>
       </c>
       <c r="D128">
-        <v>38.907192299999998</v>
+        <v>42.848708999999999</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>972</v>
+        <v>732</v>
       </c>
       <c r="B129" t="s">
-        <v>677</v>
+        <v>731</v>
       </c>
       <c r="C129">
-        <v>-97.330053000000007</v>
+        <v>-104.8202462</v>
       </c>
       <c r="D129">
-        <v>37.687176100000002</v>
+        <v>41.139981400000003</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -27999,6 +28011,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D129">
+    <sortCondition ref="B2:B129"/>
     <sortCondition ref="A2:A129"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28013,7 +28026,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28036,18 +28049,18 @@
         <v>1140</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1181</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C2" s="20">
         <f>DATE(2014,6,15)</f>
@@ -28060,10 +28073,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C3" s="18">
         <f>DATE(2016,12,23)</f>
@@ -28076,10 +28089,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C4" s="20">
         <f>DATE(2017,6,15)</f>
@@ -28092,18 +28105,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C5" s="18">
-        <f>DATE(2021,5,10)</f>
-        <v>44326</v>
-      </c>
-      <c r="D5" s="18">
-        <f>DATE(2021,5,21)</f>
-        <v>44337</v>
+        <v>1182</v>
+      </c>
+      <c r="C5" s="19">
+        <f>DATE(2021,8,31)</f>
+        <v>44439</v>
+      </c>
+      <c r="D5" s="19">
+        <f>DATE(2021,9,6)</f>
+        <v>44445</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -28113,13 +28126,13 @@
       <c r="B6" t="s">
         <v>1166</v>
       </c>
-      <c r="C6" s="4">
-        <f>DATE(2021,6,7)</f>
-        <v>44354</v>
-      </c>
-      <c r="D6" s="4">
-        <f>DATE(2021,6,19)</f>
-        <v>44366</v>
+      <c r="C6" s="18">
+        <f>DATE(2021,10,18)</f>
+        <v>44487</v>
+      </c>
+      <c r="D6" s="18">
+        <f>DATE(2021,10,31)</f>
+        <v>44500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -28127,137 +28140,137 @@
         <v>1155</v>
       </c>
       <c r="B7" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C7" s="19">
-        <f>DATE(2021,8,31)</f>
-        <v>44439</v>
-      </c>
-      <c r="D7" s="19">
-        <f>DATE(2021,9,6)</f>
-        <v>44445</v>
+        <v>1167</v>
+      </c>
+      <c r="C7" s="18">
+        <f>DATE(2021,5,10)</f>
+        <v>44326</v>
+      </c>
+      <c r="D7" s="18">
+        <f>DATE(2021,5,21)</f>
+        <v>44337</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C8" s="4">
+        <f>DATE(2021,6,7)</f>
+        <v>44354</v>
+      </c>
+      <c r="D8" s="4">
+        <f>DATE(2021,6,19)</f>
+        <v>44366</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B9" t="s">
         <v>1179</v>
       </c>
-      <c r="B8" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <f>DATE(2021,10,9)</f>
         <v>44478</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <f>DATE(2021,10,11)</f>
         <v>44480</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C9" s="18">
-        <f>DATE(2021,10,18)</f>
-        <v>44487</v>
-      </c>
-      <c r="D9" s="18">
-        <f>DATE(2021,10,31)</f>
-        <v>44500</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B10" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C10" s="4">
+        <v>1164</v>
+      </c>
+      <c r="C10" s="18">
+        <f>DATE(2022,8,21)</f>
+        <v>44794</v>
+      </c>
+      <c r="D10" s="18">
+        <f>DATE(2022,9,1)</f>
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C11" s="4">
+        <f>DATE(2022,9,24)</f>
+        <v>44828</v>
+      </c>
+      <c r="D11" s="4">
+        <f>DATE(2022,9,26)</f>
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C12" s="4">
         <f>DATE(2023,8,25)</f>
         <v>45163</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D12" s="4">
         <f>DATE(2023,8,28)</f>
         <v>45166</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C11" s="18">
-        <f>DATE(2022,8,21)</f>
-        <v>44794</v>
-      </c>
-      <c r="D11" s="18">
-        <f>DATE(2022,9,1)</f>
-        <v>44805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C12" s="4">
-        <f>DATE(2022,9,24)</f>
-        <v>44828</v>
-      </c>
-      <c r="D12" s="4">
-        <f>DATE(2022,9,26)</f>
-        <v>44830</v>
-      </c>
-    </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B13" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C13" s="18">
+        <f>DATE(2023,12,14)</f>
+        <v>45274</v>
+      </c>
+      <c r="D13" s="18">
+        <f>DATE(2023,12,24)</f>
+        <v>45284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C14" s="18">
         <f>DATE(2023,5,12)</f>
         <v>45058</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D14" s="18">
         <f>DATE(2023,5,20)</f>
         <v>45066</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C14" s="18">
-        <f>DATE(2023,12,14)</f>
-        <v>45274</v>
-      </c>
-      <c r="D14" s="18">
-        <f>DATE(2023,12,24)</f>
-        <v>45284</v>
-      </c>
-    </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B15" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C15" s="18">
         <f>DATE(2024,9,17)</f>
@@ -28270,7 +28283,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
-    <sortCondition ref="C2:C15"/>
+    <sortCondition ref="A2:A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28278,1158 +28291,1866 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105254A2-49F8-5544-A22E-2817B7B21D7B}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1139</v>
       </c>
       <c r="B1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E1" t="s">
         <v>1185</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1186</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>1187</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>1188</v>
       </c>
-      <c r="F1" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B2" t="str">
+        <f>A2&amp;"-"&amp;TEXT(C2,"00")</f>
+        <v>2024-High-Plains-01</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">A3&amp;"-"&amp;TEXT(C3,"00")</f>
+        <v>2024-High-Plains-02</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-03</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-04</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>582</v>
+      </c>
+      <c r="E5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-05</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-06</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>673</v>
+      </c>
+      <c r="E7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-07</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>565</v>
+      </c>
+      <c r="E8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-08</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>716</v>
+      </c>
+      <c r="E9" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-09</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>728</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10">
+        <v>-103.429874</v>
+      </c>
+      <c r="G10">
+        <v>46.933005000000001</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-11</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>859</v>
+      </c>
+      <c r="E12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>748</v>
+      </c>
+      <c r="E13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-13</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>713</v>
+      </c>
+      <c r="E14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-14</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>637</v>
+      </c>
+      <c r="E15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-15</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>669</v>
+      </c>
+      <c r="E16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-16</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>582</v>
+      </c>
+      <c r="E17" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-17</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>581</v>
+      </c>
+      <c r="E18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-High-Plains-18</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>577</v>
+      </c>
+      <c r="E19" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>1147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-01</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>556</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E20" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-02</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>599</v>
+      </c>
+      <c r="E21" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-03</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>596</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-04</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="E23" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-05</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>865</v>
+      </c>
+      <c r="E24" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-06</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E25" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-07</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>569</v>
+      </c>
+      <c r="E26" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-08</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>555</v>
+      </c>
+      <c r="E27" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-09</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>566</v>
+      </c>
+      <c r="E28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-10</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>709</v>
+      </c>
+      <c r="E29" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-11</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>593</v>
+      </c>
+      <c r="E30" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-12</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>865</v>
+      </c>
+      <c r="E31" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-13</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>596</v>
+      </c>
+      <c r="E32" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Florida-14</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>599</v>
+      </c>
+      <c r="E33" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-DelMarVa-01</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>556</v>
+      </c>
+      <c r="E34" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-DelMarVa-02</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>743</v>
+      </c>
+      <c r="E35" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-DelMarVa-03</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36">
+        <v>-75.036437000000006</v>
+      </c>
+      <c r="G36">
+        <v>38.333578000000003</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-DelMarVa-04</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-DelMarVa-05</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>743</v>
+      </c>
+      <c r="E38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-01</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>556</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-02</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>858</v>
+      </c>
+      <c r="E40" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-03</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>646</v>
+      </c>
+      <c r="E41" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-04</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>584</v>
+      </c>
+      <c r="E42" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-05</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>602</v>
+      </c>
+      <c r="E43" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-06</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E44" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-07</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>557</v>
+      </c>
+      <c r="E45" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-08</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>865</v>
+      </c>
+      <c r="E46" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-09</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>658</v>
+      </c>
+      <c r="E47" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-10</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>657</v>
+      </c>
+      <c r="E48" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-11</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>570</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-12</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="E50" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-13</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>592</v>
+      </c>
+      <c r="E51" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-Southeast-14</v>
+      </c>
+      <c r="C52">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>599</v>
+      </c>
+      <c r="E52" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-New-Mexico-01</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>648</v>
+      </c>
+      <c r="E53" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-New-Mexico-02</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>726</v>
+      </c>
+      <c r="E54" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-01</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>556</v>
+      </c>
+      <c r="E55" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-02</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
         <v>577</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E56" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-03</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>583</v>
+      </c>
+      <c r="E57" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-04</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>745</v>
+      </c>
+      <c r="E58" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-05</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>630</v>
+      </c>
+      <c r="E59" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-06</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>552</v>
+      </c>
+      <c r="E60" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-07</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>673</v>
+      </c>
+      <c r="E61" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-08</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>595</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62">
+        <v>-86.654329000000004</v>
+      </c>
+      <c r="G62">
+        <v>46.412545000000001</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-09</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-10</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>563</v>
+      </c>
+      <c r="E64" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-11</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>583</v>
+      </c>
+      <c r="E65" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-Lake-Michigan-12</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>577</v>
+      </c>
+      <c r="E66" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B101" si="1">A67&amp;"-"&amp;TEXT(C67,"00")</f>
+        <v>2021-SoCal-Vegas-01</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>551</v>
+      </c>
+      <c r="E67" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-SoCal-Vegas-02</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>567</v>
+      </c>
+      <c r="E68" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-SoCal-Vegas-03</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>561</v>
+      </c>
+      <c r="E69" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-01</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>556</v>
+      </c>
+      <c r="E70" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-02</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>577</v>
+      </c>
+      <c r="E71" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-03</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
         <v>581</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E72" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-04</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>579</v>
+      </c>
+      <c r="E73" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-05</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
         <v>582</v>
       </c>
-      <c r="C5" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C6" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C7" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C8" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B9" t="s">
-        <v>716</v>
-      </c>
-      <c r="C9" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B10" t="s">
-        <v>728</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10">
-        <v>-103.429874</v>
-      </c>
-      <c r="E10">
-        <v>46.933005000000001</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B12" t="s">
-        <v>859</v>
-      </c>
-      <c r="C12" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B13" t="s">
-        <v>748</v>
-      </c>
-      <c r="C13" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B14" t="s">
-        <v>713</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E74" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-06</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>720</v>
+      </c>
+      <c r="E75" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-07</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>669</v>
+      </c>
+      <c r="E76" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-08</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
         <v>637</v>
       </c>
-      <c r="C15" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B16" t="s">
-        <v>669</v>
-      </c>
-      <c r="C16" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B17" t="s">
-        <v>582</v>
-      </c>
-      <c r="C17" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B18" t="s">
-        <v>581</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E77" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-09</v>
+      </c>
+      <c r="C78">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>707</v>
+      </c>
+      <c r="E78" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-10</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>717</v>
+      </c>
+      <c r="E79" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-11</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>580</v>
+      </c>
+      <c r="E80" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-12</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>727</v>
+      </c>
+      <c r="E81" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-13</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>572</v>
+      </c>
+      <c r="E82" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-14</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>598</v>
+      </c>
+      <c r="E83" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-15</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>739</v>
+      </c>
+      <c r="E84" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-16</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>706</v>
+      </c>
+      <c r="E85" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-17</v>
+      </c>
+      <c r="C86">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>721</v>
+      </c>
+      <c r="E86" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Lower-Midwest-18</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
         <v>577</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E87" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-01</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
         <v>556</v>
       </c>
-      <c r="C20" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B21" t="s">
-        <v>599</v>
-      </c>
-      <c r="C21" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B22" t="s">
-        <v>596</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="C23" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B24" t="s">
-        <v>865</v>
-      </c>
-      <c r="C24" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B25" t="s">
-        <v>593</v>
-      </c>
-      <c r="C25" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B26" t="s">
-        <v>569</v>
-      </c>
-      <c r="C26" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B27" t="s">
-        <v>555</v>
-      </c>
-      <c r="C27" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B28" t="s">
-        <v>566</v>
-      </c>
-      <c r="C28" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B29" t="s">
-        <v>709</v>
-      </c>
-      <c r="C29" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B30" t="s">
-        <v>593</v>
-      </c>
-      <c r="C30" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B31" t="s">
-        <v>865</v>
-      </c>
-      <c r="C31" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B32" t="s">
-        <v>596</v>
-      </c>
-      <c r="C32" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B33" t="s">
-        <v>599</v>
-      </c>
-      <c r="C33" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B34" t="s">
-        <v>556</v>
-      </c>
-      <c r="C34" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B35" t="s">
-        <v>743</v>
-      </c>
-      <c r="C35" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B36" t="s">
-        <v>723</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36">
-        <v>-75.036437000000006</v>
-      </c>
-      <c r="E36">
-        <v>38.333578000000003</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B38" t="s">
-        <v>743</v>
-      </c>
-      <c r="C38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B39" t="s">
-        <v>556</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>858</v>
-      </c>
-      <c r="C40" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B41" t="s">
-        <v>646</v>
-      </c>
-      <c r="C41" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B42" t="s">
-        <v>584</v>
-      </c>
-      <c r="C42" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B43" t="s">
-        <v>602</v>
-      </c>
-      <c r="C43" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B44" t="s">
-        <v>708</v>
-      </c>
-      <c r="C44" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B45" t="s">
-        <v>557</v>
-      </c>
-      <c r="C45" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B46" t="s">
-        <v>865</v>
-      </c>
-      <c r="C46" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B47" t="s">
-        <v>658</v>
-      </c>
-      <c r="C47" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B48" t="s">
-        <v>657</v>
-      </c>
-      <c r="C48" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B49" t="s">
-        <v>570</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="C50" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B51" t="s">
-        <v>592</v>
-      </c>
-      <c r="C51" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B52" t="s">
-        <v>599</v>
-      </c>
-      <c r="C52" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B53" t="s">
-        <v>648</v>
-      </c>
-      <c r="C53" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B54" t="s">
-        <v>726</v>
-      </c>
-      <c r="C54" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B55" t="s">
-        <v>556</v>
-      </c>
-      <c r="C55" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B56" t="s">
-        <v>577</v>
-      </c>
-      <c r="C56" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B57" t="s">
-        <v>583</v>
-      </c>
-      <c r="C57" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B58" t="s">
-        <v>745</v>
-      </c>
-      <c r="C58" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B59" t="s">
-        <v>630</v>
-      </c>
-      <c r="C59" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B60" t="s">
-        <v>552</v>
-      </c>
-      <c r="C60" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B61" t="s">
-        <v>673</v>
-      </c>
-      <c r="C61" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B62" t="s">
-        <v>595</v>
-      </c>
-      <c r="C62" s="16"/>
-      <c r="D62">
-        <v>-86.654329000000004</v>
-      </c>
-      <c r="E62">
-        <v>46.412545000000001</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B63" s="16"/>
-      <c r="C63" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B64" t="s">
-        <v>563</v>
-      </c>
-      <c r="C64" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B65" t="s">
-        <v>583</v>
-      </c>
-      <c r="C65" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B66" t="s">
-        <v>577</v>
-      </c>
-      <c r="C66" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B67" t="s">
-        <v>551</v>
-      </c>
-      <c r="C67" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B68" t="s">
-        <v>567</v>
-      </c>
-      <c r="C68" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B69" t="s">
-        <v>561</v>
-      </c>
-      <c r="C69" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="E88" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>1154</v>
       </c>
-      <c r="B70" t="s">
-        <v>556</v>
-      </c>
-      <c r="C70" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-02</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>571</v>
+      </c>
+      <c r="E89" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>1154</v>
       </c>
-      <c r="B71" t="s">
-        <v>577</v>
-      </c>
-      <c r="C71" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-03</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>558</v>
+      </c>
+      <c r="E90" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>1154</v>
       </c>
-      <c r="B72" t="s">
-        <v>581</v>
-      </c>
-      <c r="C72" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-04</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>550</v>
+      </c>
+      <c r="E91" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>1154</v>
       </c>
-      <c r="B73" t="s">
-        <v>579</v>
-      </c>
-      <c r="C73" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-05</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>631</v>
+      </c>
+      <c r="E92" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>1154</v>
       </c>
-      <c r="B74" t="s">
-        <v>582</v>
-      </c>
-      <c r="C74" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-06</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>560</v>
+      </c>
+      <c r="E93" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>1154</v>
       </c>
-      <c r="B75" t="s">
-        <v>720</v>
-      </c>
-      <c r="C75" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-07</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>746</v>
+      </c>
+      <c r="E94" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>1154</v>
       </c>
-      <c r="B76" t="s">
-        <v>669</v>
-      </c>
-      <c r="C76" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-08</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>560</v>
+      </c>
+      <c r="E95" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>1154</v>
       </c>
-      <c r="B77" t="s">
-        <v>637</v>
-      </c>
-      <c r="C77" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-09</v>
+      </c>
+      <c r="C96">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>631</v>
+      </c>
+      <c r="E96" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>1154</v>
       </c>
-      <c r="B78" t="s">
-        <v>707</v>
-      </c>
-      <c r="C78" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-10</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>550</v>
+      </c>
+      <c r="E97" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>1154</v>
       </c>
-      <c r="B79" t="s">
-        <v>717</v>
-      </c>
-      <c r="C79" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-11</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>558</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>1154</v>
       </c>
-      <c r="B80" t="s">
-        <v>580</v>
-      </c>
-      <c r="C80" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-12</v>
+      </c>
+      <c r="C99">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E99" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>1154</v>
       </c>
-      <c r="B81" t="s">
-        <v>727</v>
-      </c>
-      <c r="C81" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-13</v>
+      </c>
+      <c r="C100">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>558</v>
+      </c>
+      <c r="E100" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>1154</v>
       </c>
-      <c r="B82" t="s">
-        <v>572</v>
-      </c>
-      <c r="C82" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B83" t="s">
-        <v>598</v>
-      </c>
-      <c r="C83" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B84" t="s">
-        <v>739</v>
-      </c>
-      <c r="C84" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B85" t="s">
-        <v>706</v>
-      </c>
-      <c r="C85" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B86" t="s">
-        <v>721</v>
-      </c>
-      <c r="C86" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B87" t="s">
-        <v>577</v>
-      </c>
-      <c r="C87" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B88" t="s">
-        <v>556</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-Camp-Wedding-14</v>
+      </c>
+      <c r="C101">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B89" t="s">
-        <v>571</v>
-      </c>
-      <c r="C89" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B90" t="s">
-        <v>558</v>
-      </c>
-      <c r="C90" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B91" t="s">
-        <v>550</v>
-      </c>
-      <c r="C91" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B92" t="s">
-        <v>631</v>
-      </c>
-      <c r="C92" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B93" t="s">
-        <v>560</v>
-      </c>
-      <c r="C93" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B94" t="s">
-        <v>746</v>
-      </c>
-      <c r="C94" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B95" t="s">
-        <v>560</v>
-      </c>
-      <c r="C95" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B96" t="s">
-        <v>631</v>
-      </c>
-      <c r="C96" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B97" t="s">
-        <v>550</v>
-      </c>
-      <c r="C97" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B98" t="s">
-        <v>558</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C99" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B100" t="s">
-        <v>558</v>
-      </c>
-      <c r="C100" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B101" t="s">
-        <v>571</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
         <v>556</v>
       </c>
     </row>
@@ -29442,13 +30163,13 @@
           <x14:formula1>
             <xm:f>msa_roster!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:C1048576</xm:sqref>
+          <xm:sqref>D2:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8FAF944-8946-C441-B8A0-3F55AE803200}">
           <x14:formula1>
             <xm:f>trip_roster!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D63 A88:A1048576 A1:A69</xm:sqref>
+          <xm:sqref>F63 A88:A1048576 A1:A69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -29458,965 +30179,1436 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD80BCF-5BDD-F243-8775-ADAC49C3889E}">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1139</v>
       </c>
       <c r="B1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="21">
+        <f>INT(NOT(A2=A1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B3" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">INT(NOT(A3=A2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B4" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B5" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B6" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B9" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B10" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B11" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B12" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B14" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B15" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B16" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B18" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B19" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B20" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B21" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B22" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B23" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B25" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B26" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B27" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B28" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1172</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B30" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B31" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B32" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B33" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B34" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B35" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B36" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B37" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B38" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B39" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B40" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B41" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B42" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B43" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B44" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B45" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B47" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B48" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B49" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B50" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B51" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B52" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B53" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B54" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B55" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B56" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B57" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B58" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B59" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B60" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B62" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B63" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B64" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B66" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B67" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <f t="shared" ref="C67:C118" si="1">INT(NOT(A67=A66))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B68" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B70" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B71" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B72" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B73" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B74" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B75" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B76" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B77" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B78" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B79" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B80" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B81" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B83" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B85" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B86" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B88" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B89" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B90" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B91" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B92" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B93" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B94" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B95" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B97" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B98" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B99" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B100" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B101" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B102" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B103" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B104" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B105" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B106" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B107" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B108" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B109" s="21" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B110" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B111" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B112" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B113" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B114" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B115" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B116" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B117" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B118" t="s">
         <v>713</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -30444,7 +31636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA88A3-654C-B946-8BF2-FE437BCA7E83}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/a_in/us_travels.xlsx
+++ b/a_in/us_travels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s9/Code/us_travels_v4/a_in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F08D1E-2045-D44D-81FA-C510F562E10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C31B2A-A624-8349-8665-55B794C33AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58020" yWindow="600" windowWidth="14940" windowHeight="18540" firstSheet="4" activeTab="6" xr2:uid="{895BEAD3-490B-3645-811C-E95312094DBD}"/>
+    <workbookView xWindow="58020" yWindow="600" windowWidth="14940" windowHeight="18540" firstSheet="4" activeTab="4" xr2:uid="{895BEAD3-490B-3645-811C-E95312094DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="area_region" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="1193">
   <si>
     <t>New York–Newark–Jersey City, NY-NJ MSA</t>
   </si>
@@ -26183,13 +26183,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A1812C-866A-0544-AE9F-235DC4187F8D}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26384,1635 +26384,1688 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>1189</v>
       </c>
       <c r="B14" t="s">
         <v>589</v>
       </c>
       <c r="C14">
-        <v>-117.37549420000001</v>
+        <v>-120.483333</v>
       </c>
       <c r="D14">
-        <v>33.980600500000001</v>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="B15" t="s">
         <v>589</v>
       </c>
       <c r="C15">
-        <v>-121.49439959999999</v>
+        <v>-117.37549420000001</v>
       </c>
       <c r="D15">
-        <v>38.5815719</v>
+        <v>33.980600500000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B16" t="s">
         <v>589</v>
       </c>
       <c r="C16">
-        <v>-117.1610838</v>
+        <v>-121.49439959999999</v>
       </c>
       <c r="D16">
-        <v>32.715738000000002</v>
+        <v>38.5815719</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B17" t="s">
         <v>589</v>
       </c>
       <c r="C17">
-        <v>-122.4194155</v>
+        <v>-117.1610838</v>
       </c>
       <c r="D17">
-        <v>37.774929499999999</v>
+        <v>32.715738000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="B18" t="s">
         <v>589</v>
       </c>
       <c r="C18">
-        <v>-121.8863286</v>
+        <v>-122.4194155</v>
       </c>
       <c r="D18">
-        <v>37.338208199999997</v>
+        <v>37.774929499999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>866</v>
+        <v>591</v>
       </c>
       <c r="B19" t="s">
         <v>589</v>
       </c>
       <c r="C19">
-        <v>-119.7</v>
+        <v>-121.8863286</v>
       </c>
       <c r="D19">
-        <v>34.416666999999997</v>
+        <v>37.338208199999997</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>968</v>
+        <v>866</v>
       </c>
       <c r="B20" t="s">
         <v>589</v>
       </c>
       <c r="C20">
-        <v>-120.38166699999999</v>
+        <v>-119.7</v>
       </c>
       <c r="D20">
-        <v>37.984444000000003</v>
+        <v>34.416666999999997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>868</v>
+        <v>968</v>
       </c>
       <c r="B21" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C21">
-        <v>-104.825278</v>
+        <v>-120.38166699999999</v>
       </c>
       <c r="D21">
-        <v>38.833888999999999</v>
+        <v>37.984444000000003</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>568</v>
+        <v>868</v>
       </c>
       <c r="B22" t="s">
         <v>613</v>
       </c>
       <c r="C22">
-        <v>-104.990251</v>
+        <v>-104.825278</v>
       </c>
       <c r="D22">
-        <v>39.739235800000003</v>
+        <v>38.833888999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>631</v>
+        <v>568</v>
       </c>
       <c r="B23" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="C23">
-        <v>-72.673372299999997</v>
+        <v>-104.990251</v>
       </c>
       <c r="D23">
-        <v>41.765804299999999</v>
+        <v>39.739235800000003</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>689</v>
+        <v>631</v>
       </c>
       <c r="B24" t="s">
         <v>632</v>
       </c>
       <c r="C24">
-        <v>-72.923610999999994</v>
+        <v>-72.673372299999997</v>
       </c>
       <c r="D24">
-        <v>41.31</v>
+        <v>41.765804299999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>556</v>
+        <v>689</v>
       </c>
       <c r="B25" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="C25">
-        <v>-77.036870699999994</v>
+        <v>-72.923610999999994</v>
       </c>
       <c r="D25">
-        <v>38.907192299999998</v>
+        <v>41.31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>723</v>
+        <v>556</v>
       </c>
       <c r="B26" t="s">
-        <v>722</v>
+        <v>609</v>
       </c>
       <c r="C26">
-        <v>-75.524368199999998</v>
+        <v>-77.036870699999994</v>
       </c>
       <c r="D26">
-        <v>39.158168000000003</v>
+        <v>38.907192299999998</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>593</v>
+        <v>723</v>
       </c>
       <c r="B27" t="s">
-        <v>608</v>
+        <v>722</v>
       </c>
       <c r="C27">
-        <v>-81.655651000000006</v>
+        <v>-75.524368199999998</v>
       </c>
       <c r="D27">
-        <v>30.332183799999999</v>
+        <v>39.158168000000003</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>969</v>
+        <v>593</v>
       </c>
       <c r="B28" t="s">
         <v>608</v>
       </c>
       <c r="C28">
-        <v>-81.781943999999996</v>
+        <v>-81.655651000000006</v>
       </c>
       <c r="D28">
-        <v>24.555</v>
+        <v>30.332183799999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>555</v>
+        <v>969</v>
       </c>
       <c r="B29" t="s">
         <v>608</v>
       </c>
       <c r="C29">
-        <v>-80.1917902</v>
+        <v>-81.781943999999996</v>
       </c>
       <c r="D29">
-        <v>25.7616798</v>
+        <v>24.555</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B30" t="s">
         <v>608</v>
       </c>
       <c r="C30">
-        <v>-81.378926899999996</v>
+        <v>-80.1917902</v>
       </c>
       <c r="D30">
-        <v>28.538383199999998</v>
+        <v>25.7616798</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>709</v>
+        <v>569</v>
       </c>
       <c r="B31" t="s">
         <v>608</v>
       </c>
       <c r="C31">
-        <v>-84.280732900000004</v>
+        <v>-81.378926899999996</v>
       </c>
       <c r="D31">
-        <v>30.438255900000001</v>
+        <v>28.538383199999998</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>566</v>
+        <v>709</v>
       </c>
       <c r="B32" t="s">
         <v>608</v>
       </c>
       <c r="C32">
-        <v>-82.457177599999994</v>
+        <v>-84.280732900000004</v>
       </c>
       <c r="D32">
-        <v>27.950575000000001</v>
+        <v>30.438255900000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="B33" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C33">
-        <v>-84.387982399999999</v>
+        <v>-82.457177599999994</v>
       </c>
       <c r="D33">
-        <v>33.748995399999998</v>
+        <v>27.950575000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>865</v>
+        <v>557</v>
       </c>
       <c r="B34" t="s">
         <v>603</v>
       </c>
       <c r="C34">
-        <v>-81.091202999999993</v>
+        <v>-84.387982399999999</v>
       </c>
       <c r="D34">
-        <v>32.080898900000001</v>
+        <v>33.748995399999998</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>639</v>
+        <v>865</v>
       </c>
       <c r="B35" t="s">
-        <v>640</v>
+        <v>603</v>
       </c>
       <c r="C35">
-        <v>-157.8583333</v>
+        <v>-81.091202999999993</v>
       </c>
       <c r="D35">
-        <v>21.306944399999999</v>
+        <v>32.080898900000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>872</v>
+        <v>639</v>
       </c>
       <c r="B36" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="C36">
-        <v>-90.577636699999999</v>
+        <v>-157.8583333</v>
       </c>
       <c r="D36">
-        <v>41.523643700000001</v>
+        <v>21.306944399999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>669</v>
+        <v>872</v>
       </c>
       <c r="B37" t="s">
         <v>670</v>
       </c>
       <c r="C37">
-        <v>-93.6249593</v>
+        <v>-90.577636699999999</v>
       </c>
       <c r="D37">
-        <v>41.586835299999997</v>
+        <v>41.523643700000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B38" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="C38">
-        <v>-116.2023137</v>
+        <v>-93.6249593</v>
       </c>
       <c r="D38">
-        <v>43.615018599999999</v>
+        <v>41.586835299999997</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>971</v>
+        <v>661</v>
       </c>
       <c r="B39" t="s">
         <v>662</v>
       </c>
       <c r="C39">
-        <v>-116.78</v>
+        <v>-116.2023137</v>
       </c>
       <c r="D39">
-        <v>47.692777999999997</v>
+        <v>43.615018599999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>552</v>
+        <v>971</v>
       </c>
       <c r="B40" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="C40">
-        <v>-87.629798199999996</v>
+        <v>-116.78</v>
       </c>
       <c r="D40">
-        <v>41.878113599999999</v>
+        <v>47.692777999999997</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>720</v>
+        <v>552</v>
       </c>
       <c r="B41" t="s">
         <v>590</v>
       </c>
       <c r="C41">
-        <v>-89.650148099999996</v>
+        <v>-87.629798199999996</v>
       </c>
       <c r="D41">
-        <v>39.781721300000001</v>
+        <v>41.878113599999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>582</v>
+        <v>720</v>
       </c>
       <c r="B42" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="C42">
-        <v>-86.158068</v>
+        <v>-89.650148099999996</v>
       </c>
       <c r="D42">
-        <v>39.768402999999999</v>
+        <v>39.781721300000001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>717</v>
+        <v>582</v>
       </c>
       <c r="B43" t="s">
-        <v>677</v>
+        <v>620</v>
       </c>
       <c r="C43">
-        <v>-95.675157600000006</v>
+        <v>-86.158068</v>
       </c>
       <c r="D43">
-        <v>39.047345100000001</v>
+        <v>39.768402999999999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>972</v>
+        <v>717</v>
       </c>
       <c r="B44" t="s">
         <v>677</v>
       </c>
       <c r="C44">
-        <v>-97.330053000000007</v>
+        <v>-95.675157600000006</v>
       </c>
       <c r="D44">
-        <v>37.687176100000002</v>
+        <v>39.047345100000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>864</v>
+        <v>972</v>
       </c>
       <c r="B45" t="s">
-        <v>626</v>
-      </c>
-      <c r="C45" s="6">
-        <v>-86.444444000000004</v>
-      </c>
-      <c r="D45" s="6">
-        <v>36.981667000000002</v>
+        <v>677</v>
+      </c>
+      <c r="C45">
+        <v>-97.330053000000007</v>
+      </c>
+      <c r="D45">
+        <v>37.687176100000002</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>739</v>
+        <v>864</v>
       </c>
       <c r="B46" t="s">
         <v>626</v>
       </c>
-      <c r="C46">
-        <v>-84.873283499999999</v>
-      </c>
-      <c r="D46">
-        <v>38.200905499999998</v>
+      <c r="C46" s="6">
+        <v>-86.444444000000004</v>
+      </c>
+      <c r="D46" s="6">
+        <v>36.981667000000002</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>598</v>
+        <v>739</v>
       </c>
       <c r="B47" t="s">
         <v>626</v>
       </c>
       <c r="C47">
-        <v>-85.758455699999999</v>
+        <v>-84.873283499999999</v>
       </c>
       <c r="D47">
-        <v>38.252664699999997</v>
+        <v>38.200905499999998</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="B48" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="C48">
-        <v>-91.187146600000005</v>
+        <v>-85.758455699999999</v>
       </c>
       <c r="D48">
-        <v>30.451467699999998</v>
+        <v>38.252664699999997</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="B49" t="s">
         <v>645</v>
       </c>
       <c r="C49">
-        <v>-90.071532300000001</v>
+        <v>-91.187146600000005</v>
       </c>
       <c r="D49">
-        <v>29.951065799999999</v>
+        <v>30.451467699999998</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="B50" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
       <c r="C50">
-        <v>-71.058880099999996</v>
+        <v>-90.071532300000001</v>
       </c>
       <c r="D50">
-        <v>42.360082499999997</v>
+        <v>29.951065799999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>743</v>
+        <v>560</v>
       </c>
       <c r="B51" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C51">
-        <v>-76.492182900000003</v>
+        <v>-71.058880099999996</v>
       </c>
       <c r="D51">
-        <v>38.978445299999997</v>
+        <v>42.360082499999997</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>571</v>
+        <v>743</v>
       </c>
       <c r="B52" t="s">
         <v>615</v>
       </c>
       <c r="C52">
-        <v>-76.612189299999997</v>
+        <v>-76.492182900000003</v>
       </c>
       <c r="D52">
-        <v>39.290384799999998</v>
+        <v>38.978445299999997</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>741</v>
+        <v>571</v>
       </c>
       <c r="B53" t="s">
-        <v>693</v>
+        <v>615</v>
       </c>
       <c r="C53">
-        <v>-69.779489699999999</v>
+        <v>-76.612189299999997</v>
       </c>
       <c r="D53">
-        <v>44.310624099999998</v>
+        <v>39.290384799999998</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
       <c r="B54" t="s">
         <v>693</v>
       </c>
       <c r="C54">
-        <v>-70.256818899999999</v>
+        <v>-69.779489699999999</v>
       </c>
       <c r="D54">
-        <v>43.659099300000001</v>
+        <v>44.310624099999998</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>563</v>
+        <v>879</v>
       </c>
       <c r="B55" t="s">
-        <v>610</v>
+        <v>693</v>
       </c>
       <c r="C55">
-        <v>-83.0457538</v>
+        <v>-68.767499999999998</v>
       </c>
       <c r="D55">
-        <v>42.331426999999998</v>
+        <v>44.803055999999998</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>630</v>
+        <v>692</v>
       </c>
       <c r="B56" t="s">
-        <v>610</v>
+        <v>693</v>
       </c>
       <c r="C56">
-        <v>-85.668086299999999</v>
+        <v>-70.256818899999999</v>
       </c>
       <c r="D56">
-        <v>42.9633599</v>
+        <v>43.659099300000001</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>745</v>
+        <v>563</v>
       </c>
       <c r="B57" t="s">
         <v>610</v>
       </c>
       <c r="C57">
-        <v>-84.555534699999995</v>
+        <v>-83.0457538</v>
       </c>
       <c r="D57">
-        <v>42.732534999999999</v>
+        <v>42.331426999999998</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="B58" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C58">
-        <v>-93.265010799999999</v>
+        <v>-85.668086299999999</v>
       </c>
       <c r="D58">
-        <v>44.977753</v>
+        <v>42.9633599</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="B59" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C59">
-        <v>-92.173516399999997</v>
+        <v>-84.555534699999995</v>
       </c>
       <c r="D59">
-        <v>38.576701700000001</v>
+        <v>42.732534999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="B60" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C60">
-        <v>-94.578566699999996</v>
+        <v>-93.265010799999999</v>
       </c>
       <c r="D60">
-        <v>39.099726500000003</v>
+        <v>44.977753</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>572</v>
+        <v>727</v>
       </c>
       <c r="B61" t="s">
         <v>616</v>
       </c>
       <c r="C61">
-        <v>-90.199404200000004</v>
+        <v>-92.173516399999997</v>
       </c>
       <c r="D61">
-        <v>38.627002500000003</v>
+        <v>38.576701700000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>683</v>
+        <v>580</v>
       </c>
       <c r="B62" t="s">
-        <v>684</v>
+        <v>616</v>
       </c>
       <c r="C62">
-        <v>-90.184810299999995</v>
+        <v>-94.578566699999996</v>
       </c>
       <c r="D62">
-        <v>32.298757299999998</v>
+        <v>39.099726500000003</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="B63" t="s">
-        <v>724</v>
+        <v>616</v>
       </c>
       <c r="C63">
-        <v>-108.5006904</v>
+        <v>-90.199404200000004</v>
       </c>
       <c r="D63">
-        <v>45.783285599999999</v>
+        <v>38.627002500000003</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>863</v>
+        <v>683</v>
       </c>
       <c r="B64" t="s">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="C64">
-        <v>-111.047222</v>
+        <v>-90.184810299999995</v>
       </c>
       <c r="D64">
-        <v>45.677778000000004</v>
+        <v>32.298757299999998</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B65" t="s">
         <v>724</v>
       </c>
       <c r="C65">
-        <v>-112.03910569999999</v>
+        <v>-108.5006904</v>
       </c>
       <c r="D65">
-        <v>46.589145199999997</v>
+        <v>45.783285599999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B66" t="s">
-        <v>614</v>
+        <v>724</v>
       </c>
       <c r="C66">
-        <v>-82.682777999999999</v>
-      </c>
-      <c r="D66" s="6">
-        <v>35.600555999999997</v>
+        <v>-111.047222</v>
+      </c>
+      <c r="D66">
+        <v>45.677778000000004</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>570</v>
+        <v>730</v>
       </c>
       <c r="B67" t="s">
-        <v>614</v>
+        <v>724</v>
       </c>
       <c r="C67">
-        <v>-80.843126699999999</v>
+        <v>-112.03910569999999</v>
       </c>
       <c r="D67">
-        <v>35.227086900000003</v>
+        <v>46.589145199999997</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>596</v>
+        <v>862</v>
       </c>
       <c r="B68" t="s">
         <v>614</v>
       </c>
       <c r="C68">
-        <v>-78.638178699999997</v>
-      </c>
-      <c r="D68">
-        <v>35.779589700000002</v>
+        <v>-82.682777999999999</v>
+      </c>
+      <c r="D68" s="6">
+        <v>35.600555999999997</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>728</v>
+        <v>570</v>
       </c>
       <c r="B69" t="s">
-        <v>715</v>
+        <v>614</v>
       </c>
       <c r="C69">
-        <v>-100.7837392</v>
+        <v>-80.843126699999999</v>
       </c>
       <c r="D69">
-        <v>46.808326800000003</v>
+        <v>35.227086900000003</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>716</v>
+        <v>596</v>
       </c>
       <c r="B70" t="s">
-        <v>715</v>
+        <v>614</v>
       </c>
       <c r="C70">
-        <v>-96.789803399999997</v>
+        <v>-78.638178699999997</v>
       </c>
       <c r="D70">
-        <v>46.877186299999998</v>
+        <v>35.779589700000002</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="B71" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="C71">
-        <v>-96.702595500000001</v>
+        <v>-100.7837392</v>
       </c>
       <c r="D71">
-        <v>40.813616000000003</v>
+        <v>46.808326800000003</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="B72" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="C72">
-        <v>-95.934503399999997</v>
+        <v>-96.789803399999997</v>
       </c>
       <c r="D72">
-        <v>41.2565369</v>
+        <v>46.877186299999998</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>746</v>
+        <v>707</v>
       </c>
       <c r="B73" t="s">
-        <v>699</v>
+        <v>638</v>
       </c>
       <c r="C73">
-        <v>-71.537571799999995</v>
+        <v>-96.702595500000001</v>
       </c>
       <c r="D73">
-        <v>43.208136600000003</v>
+        <v>40.813616000000003</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>700</v>
+        <v>637</v>
       </c>
       <c r="B74" t="s">
-        <v>699</v>
+        <v>638</v>
       </c>
       <c r="C74">
-        <v>-71.463611</v>
+        <v>-95.934503399999997</v>
       </c>
       <c r="D74">
-        <v>42.990833000000002</v>
+        <v>41.2565369</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="B75" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C75">
-        <v>-74.759716999999995</v>
+        <v>-71.537571799999995</v>
       </c>
       <c r="D75">
-        <v>40.220582399999998</v>
+        <v>43.208136600000003</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>648</v>
+        <v>700</v>
       </c>
       <c r="B76" t="s">
-        <v>649</v>
+        <v>699</v>
       </c>
       <c r="C76">
-        <v>-106.65042200000001</v>
+        <v>-71.463611</v>
       </c>
       <c r="D76">
-        <v>35.084385900000001</v>
+        <v>42.990833000000002</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>726</v>
+        <v>1172</v>
       </c>
       <c r="B77" t="s">
-        <v>649</v>
-      </c>
-      <c r="C77">
-        <v>-105.937799</v>
+        <v>703</v>
+      </c>
+      <c r="C77" s="6">
+        <v>-74.599796999999995</v>
       </c>
       <c r="D77">
-        <v>35.686975199999999</v>
+        <v>39.269523</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>973</v>
+        <v>704</v>
       </c>
       <c r="B78" t="s">
-        <v>649</v>
+        <v>703</v>
       </c>
       <c r="C78">
-        <v>-105.576667</v>
+        <v>-74.759716999999995</v>
       </c>
       <c r="D78">
-        <v>36.393889000000001</v>
+        <v>40.220582399999998</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>729</v>
+        <v>648</v>
       </c>
       <c r="B79" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
       <c r="C79">
-        <v>-119.76740340000001</v>
+        <v>-106.65042200000001</v>
       </c>
       <c r="D79">
-        <v>39.163798399999997</v>
+        <v>35.084385900000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>578</v>
+        <v>726</v>
       </c>
       <c r="B80" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
       <c r="C80">
-        <v>-115.1398296</v>
+        <v>-105.937799</v>
       </c>
       <c r="D80">
-        <v>36.169941199999997</v>
+        <v>35.686975199999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>652</v>
+        <v>973</v>
       </c>
       <c r="B81" t="s">
-        <v>588</v>
+        <v>649</v>
       </c>
       <c r="C81">
-        <v>-73.756231700000001</v>
+        <v>-105.576667</v>
       </c>
       <c r="D81">
-        <v>42.652579299999999</v>
+        <v>36.393889000000001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>633</v>
+        <v>729</v>
       </c>
       <c r="B82" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C82">
-        <v>-78.878368899999998</v>
+        <v>-119.76740340000001</v>
       </c>
       <c r="D82">
-        <v>42.886446800000002</v>
+        <v>39.163798399999997</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="B83" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C83">
-        <v>-74.005972799999995</v>
+        <v>-115.1398296</v>
       </c>
       <c r="D83">
-        <v>40.712775299999997</v>
+        <v>36.169941199999997</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="B84" t="s">
         <v>588</v>
       </c>
       <c r="C84">
-        <v>-77.608846499999999</v>
+        <v>-73.756231700000001</v>
       </c>
       <c r="D84">
-        <v>43.156577900000002</v>
+        <v>42.652579299999999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>579</v>
+        <v>633</v>
       </c>
       <c r="B85" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="C85">
-        <v>-84.512019600000002</v>
+        <v>-78.878368899999998</v>
       </c>
       <c r="D85">
-        <v>39.103118199999997</v>
+        <v>42.886446800000002</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="B86" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="C86">
-        <v>-81.694360500000002</v>
+        <v>-74.005972799999995</v>
       </c>
       <c r="D86">
-        <v>41.499319999999997</v>
+        <v>40.712775299999997</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>581</v>
+        <v>636</v>
       </c>
       <c r="B87" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="C87">
-        <v>-82.998794200000006</v>
+        <v>-77.608846499999999</v>
       </c>
       <c r="D87">
-        <v>39.961175500000003</v>
+        <v>43.156577900000002</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="B88" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C88">
-        <v>-97.5164276</v>
+        <v>-84.512019600000002</v>
       </c>
       <c r="D88">
-        <v>35.467560200000001</v>
+        <v>39.103118199999997</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>635</v>
+        <v>583</v>
       </c>
       <c r="B89" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C89">
-        <v>-95.992774999999995</v>
+        <v>-81.694360500000002</v>
       </c>
       <c r="D89">
-        <v>36.153981600000002</v>
+        <v>41.499319999999997</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>861</v>
+        <v>581</v>
       </c>
       <c r="B90" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C90">
-        <v>-123.328333</v>
+        <v>-82.998794200000006</v>
       </c>
       <c r="D90">
-        <v>42.438889000000003</v>
+        <v>39.961175500000003</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="B91" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="C91">
-        <v>-122.6783853</v>
+        <v>-97.5164276</v>
       </c>
       <c r="D91">
-        <v>45.515231999999997</v>
+        <v>35.467560200000001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>710</v>
+        <v>635</v>
       </c>
       <c r="B92" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="C92">
-        <v>-123.03509630000001</v>
+        <v>-95.992774999999995</v>
       </c>
       <c r="D92">
-        <v>44.942897500000001</v>
+        <v>36.153981600000002</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>682</v>
+        <v>861</v>
       </c>
       <c r="B93" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="C93">
-        <v>-76.8867008</v>
+        <v>-123.328333</v>
       </c>
       <c r="D93">
-        <v>40.273191099999998</v>
+        <v>42.438889000000003</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="B94" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="C94">
-        <v>-75.165221500000001</v>
+        <v>-122.6783853</v>
       </c>
       <c r="D94">
-        <v>39.9525839</v>
+        <v>45.515231999999997</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>577</v>
+        <v>710</v>
       </c>
       <c r="B95" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="C95">
-        <v>-79.995886400000003</v>
+        <v>-123.03509630000001</v>
       </c>
       <c r="D95">
-        <v>40.440624800000002</v>
+        <v>44.942897500000001</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>733</v>
+        <v>653</v>
       </c>
       <c r="B96" t="s">
-        <v>734</v>
+        <v>604</v>
       </c>
       <c r="C96">
-        <v>-66.105735499999994</v>
+        <v>-75.477221999999998</v>
       </c>
       <c r="D96">
-        <v>18.465539400000001</v>
+        <v>40.601666999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>594</v>
+        <v>682</v>
       </c>
       <c r="B97" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="C97">
-        <v>-71.4128343</v>
+        <v>-76.8867008</v>
       </c>
       <c r="D97">
-        <v>41.823989099999999</v>
+        <v>40.273191099999998</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>658</v>
+        <v>558</v>
       </c>
       <c r="B98" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="C98">
-        <v>-79.931051199999999</v>
+        <v>-75.165221500000001</v>
       </c>
       <c r="D98">
-        <v>32.776474899999997</v>
+        <v>39.9525839</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>657</v>
+        <v>577</v>
       </c>
       <c r="B99" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="C99">
-        <v>-81.034814400000002</v>
+        <v>-79.995886400000003</v>
       </c>
       <c r="D99">
-        <v>34.000710400000003</v>
+        <v>40.440624800000002</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>641</v>
+        <v>733</v>
       </c>
       <c r="B100" t="s">
-        <v>642</v>
+        <v>734</v>
       </c>
       <c r="C100">
-        <v>-82.413332999999994</v>
+        <v>-66.105735499999994</v>
       </c>
       <c r="D100">
-        <v>34.861111000000001</v>
+        <v>18.465539400000001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>748</v>
+        <v>594</v>
       </c>
       <c r="B101" t="s">
-        <v>712</v>
+        <v>623</v>
       </c>
       <c r="C101">
-        <v>-100.3537522</v>
+        <v>-71.4128343</v>
       </c>
       <c r="D101">
-        <v>44.366787600000002</v>
+        <v>41.823989099999999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>859</v>
+        <v>658</v>
       </c>
       <c r="B102" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="C102">
-        <v>-103.220833</v>
+        <v>-79.931051199999999</v>
       </c>
       <c r="D102">
-        <v>44.071389000000003</v>
+        <v>32.776474899999997</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>713</v>
+        <v>657</v>
       </c>
       <c r="B103" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="C103">
-        <v>-96.731264999999993</v>
+        <v>-81.034814400000002</v>
       </c>
       <c r="D103">
-        <v>43.546022299999997</v>
+        <v>34.000710400000003</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B104" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="C104">
-        <v>-83.9207392</v>
+        <v>-82.413332999999994</v>
       </c>
       <c r="D104">
-        <v>35.960638400000001</v>
+        <v>34.861111000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>600</v>
+        <v>748</v>
       </c>
       <c r="B105" t="s">
-        <v>621</v>
+        <v>712</v>
       </c>
       <c r="C105">
-        <v>-90.048980099999994</v>
+        <v>-100.3537522</v>
       </c>
       <c r="D105">
-        <v>35.149534299999999</v>
+        <v>44.366787600000002</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>584</v>
+        <v>859</v>
       </c>
       <c r="B106" t="s">
-        <v>621</v>
+        <v>712</v>
       </c>
       <c r="C106">
-        <v>-86.781601600000002</v>
+        <v>-103.220833</v>
       </c>
       <c r="D106">
-        <v>36.162663799999997</v>
+        <v>44.071389000000003</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="B107" t="s">
-        <v>607</v>
+        <v>712</v>
       </c>
       <c r="C107">
-        <v>-97.743060799999995</v>
+        <v>-96.731264999999993</v>
       </c>
       <c r="D107">
-        <v>30.267153</v>
+        <v>43.546022299999997</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>553</v>
+        <v>646</v>
       </c>
       <c r="B108" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="C108">
-        <v>-96.796987900000005</v>
+        <v>-83.9207392</v>
       </c>
       <c r="D108">
-        <v>32.776664199999999</v>
+        <v>35.960638400000001</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>656</v>
+        <v>600</v>
       </c>
       <c r="B109" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="C109">
-        <v>-106.48861100000001</v>
+        <v>-90.048980099999994</v>
       </c>
       <c r="D109">
-        <v>31.759167000000001</v>
+        <v>35.149534299999999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="B110" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="C110">
-        <v>-95.369802800000002</v>
+        <v>-86.781601600000002</v>
       </c>
       <c r="D110">
-        <v>29.7604267</v>
+        <v>36.162663799999997</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B111" t="s">
         <v>607</v>
       </c>
       <c r="C111">
-        <v>-98.493628200000003</v>
+        <v>-97.743060799999995</v>
       </c>
       <c r="D111">
-        <v>29.424121899999999</v>
+        <v>30.267153</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>668</v>
+        <v>553</v>
       </c>
       <c r="B112" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="C112">
-        <v>-111.660833</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="D112">
-        <v>40.244444000000001</v>
+        <v>32.776664199999999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>601</v>
+        <v>656</v>
       </c>
       <c r="B113" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="C113">
-        <v>-111.89104740000001</v>
+        <v>-106.48861100000001</v>
       </c>
       <c r="D113">
-        <v>40.760779300000003</v>
+        <v>31.759167000000001</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>858</v>
+        <v>554</v>
       </c>
       <c r="B114" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="C114">
-        <v>-78.476678100000001</v>
+        <v>-95.369802800000002</v>
       </c>
       <c r="D114">
-        <v>38.029305899999997</v>
+        <v>29.7604267</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="B115" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="C115">
-        <v>-77.436048099999994</v>
+        <v>-98.493628200000003</v>
       </c>
       <c r="D115">
-        <v>37.540724599999997</v>
+        <v>29.424121899999999</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="B116" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="C116">
-        <v>-76.285872600000005</v>
+        <v>-111.660833</v>
       </c>
       <c r="D116">
-        <v>36.850768899999998</v>
+        <v>40.244444000000001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>719</v>
+        <v>601</v>
       </c>
       <c r="B117" t="s">
-        <v>718</v>
+        <v>627</v>
       </c>
       <c r="C117">
-        <v>-73.212072000000006</v>
+        <v>-111.89104740000001</v>
       </c>
       <c r="D117">
-        <v>44.475882499999997</v>
+        <v>40.760779300000003</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>751</v>
+        <v>858</v>
       </c>
       <c r="B118" t="s">
-        <v>718</v>
+        <v>622</v>
       </c>
       <c r="C118">
-        <v>-72.575386899999998</v>
+        <v>-78.476678100000001</v>
       </c>
       <c r="D118">
-        <v>44.260059300000002</v>
+        <v>38.029305899999997</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>857</v>
+        <v>599</v>
       </c>
       <c r="B119" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C119">
-        <v>-122.744444</v>
+        <v>-77.436048099999994</v>
       </c>
       <c r="D119">
-        <v>47.538888999999998</v>
+        <v>37.540724599999997</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>714</v>
+        <v>592</v>
       </c>
       <c r="B120" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C120">
-        <v>-122.90069509999999</v>
+        <v>-76.285872600000005</v>
       </c>
       <c r="D120">
-        <v>47.037874100000003</v>
+        <v>36.850768899999998</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>970</v>
+        <v>719</v>
       </c>
       <c r="B121" t="s">
-        <v>611</v>
+        <v>718</v>
       </c>
       <c r="C121">
-        <v>-123.440833</v>
+        <v>-73.212072000000006</v>
       </c>
       <c r="D121">
-        <v>48.113056</v>
+        <v>44.475882499999997</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>564</v>
+        <v>751</v>
       </c>
       <c r="B122" t="s">
-        <v>611</v>
+        <v>718</v>
       </c>
       <c r="C122">
-        <v>-122.3320708</v>
+        <v>-72.575386899999998</v>
       </c>
       <c r="D122">
-        <v>47.606209499999999</v>
+        <v>44.260059300000002</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>673</v>
+        <v>857</v>
       </c>
       <c r="B123" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C123">
-        <v>-89.401230200000001</v>
+        <v>-122.744444</v>
       </c>
       <c r="D123">
-        <v>43.073051700000001</v>
+        <v>47.538888999999998</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>595</v>
+        <v>714</v>
       </c>
       <c r="B124" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C124">
-        <v>-87.906473599999998</v>
+        <v>-122.90069509999999</v>
       </c>
       <c r="D124">
-        <v>43.038902499999999</v>
+        <v>47.037874100000003</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>721</v>
+        <v>970</v>
       </c>
       <c r="B125" t="s">
-        <v>705</v>
+        <v>611</v>
       </c>
       <c r="C125">
-        <v>-81.6326234</v>
+        <v>-123.440833</v>
       </c>
       <c r="D125">
-        <v>38.349819500000002</v>
+        <v>48.113056</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>706</v>
+        <v>564</v>
       </c>
       <c r="B126" t="s">
-        <v>705</v>
+        <v>611</v>
       </c>
       <c r="C126">
-        <v>-82.445153000000005</v>
+        <v>-122.3320708</v>
       </c>
       <c r="D126">
-        <v>38.419249999999998</v>
+        <v>47.606209499999999</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>897</v>
+        <v>673</v>
       </c>
       <c r="B127" t="s">
-        <v>705</v>
+        <v>624</v>
       </c>
       <c r="C127">
-        <v>-79.950556000000006</v>
+        <v>-89.401230200000001</v>
       </c>
       <c r="D127">
-        <v>39.633611000000002</v>
+        <v>43.073051700000001</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>869</v>
+        <v>595</v>
       </c>
       <c r="B128" t="s">
-        <v>731</v>
+        <v>624</v>
       </c>
       <c r="C128">
-        <v>-106.2980824</v>
+        <v>-87.906473599999998</v>
       </c>
       <c r="D128">
-        <v>42.848708999999999</v>
+        <v>43.038902499999999</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>721</v>
+      </c>
+      <c r="B129" t="s">
+        <v>705</v>
+      </c>
+      <c r="C129">
+        <v>-81.6326234</v>
+      </c>
+      <c r="D129">
+        <v>38.349819500000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>706</v>
+      </c>
+      <c r="B130" t="s">
+        <v>705</v>
+      </c>
+      <c r="C130">
+        <v>-82.445153000000005</v>
+      </c>
+      <c r="D130">
+        <v>38.419249999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>897</v>
+      </c>
+      <c r="B131" t="s">
+        <v>705</v>
+      </c>
+      <c r="C131">
+        <v>-79.950556000000006</v>
+      </c>
+      <c r="D131">
+        <v>39.633611000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>869</v>
+      </c>
+      <c r="B132" t="s">
+        <v>731</v>
+      </c>
+      <c r="C132">
+        <v>-106.2980824</v>
+      </c>
+      <c r="D132">
+        <v>42.848708999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>732</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B133" t="s">
         <v>731</v>
       </c>
-      <c r="C129">
+      <c r="C133">
         <v>-104.8202462</v>
       </c>
-      <c r="D129">
+      <c r="D133">
         <v>41.139981400000003</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C131" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D129">
-    <sortCondition ref="B2:B129"/>
-    <sortCondition ref="A2:A129"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D133">
+    <sortCondition ref="B2:B133"/>
+    <sortCondition ref="A2:A133"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28293,7 +28346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105254A2-49F8-5544-A22E-2817B7B21D7B}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
